--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="293">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -204,24 +204,6 @@
     <t>Asignacion simple</t>
   </si>
   <si>
-    <t>IF SIMPLE - Condicion</t>
-  </si>
-  <si>
-    <t>IF SIMPLE - Salto por falso</t>
-  </si>
-  <si>
-    <t>IF SIMPLE - Parte True</t>
-  </si>
-  <si>
-    <t>IF con AND - Salto por falso</t>
-  </si>
-  <si>
-    <t>IF con AND - Condicion 1</t>
-  </si>
-  <si>
-    <t>IF con AND - Condicion 2</t>
-  </si>
-  <si>
     <t>CELDA 44</t>
   </si>
   <si>
@@ -231,15 +213,6 @@
     <t>CELDA 51</t>
   </si>
   <si>
-    <t>IF con OR - Condicion 1</t>
-  </si>
-  <si>
-    <t>IF con OR - Condicion 2</t>
-  </si>
-  <si>
-    <t>IF con OR - Salto por falso</t>
-  </si>
-  <si>
     <t>CELDA 42</t>
   </si>
   <si>
@@ -288,10 +261,640 @@
     <t>CELDA 60</t>
   </si>
   <si>
-    <t>IF con OR - Sentencia</t>
-  </si>
-  <si>
-    <t>IF con OR - Salto incondicional al fin del IF</t>
+    <t>CELDA 63</t>
+  </si>
+  <si>
+    <t>CELDA 68</t>
+  </si>
+  <si>
+    <t>CELDA 71</t>
+  </si>
+  <si>
+    <t>CELDA 61</t>
+  </si>
+  <si>
+    <t>CELDA 62</t>
+  </si>
+  <si>
+    <t>CELDA 64</t>
+  </si>
+  <si>
+    <t>CELDA 65</t>
+  </si>
+  <si>
+    <t>CELDA 66</t>
+  </si>
+  <si>
+    <t>CELDA 67</t>
+  </si>
+  <si>
+    <t>CELDA 69</t>
+  </si>
+  <si>
+    <t>CELDA 70</t>
+  </si>
+  <si>
+    <t>CELDA 72</t>
+  </si>
+  <si>
+    <t>CELDA 73</t>
+  </si>
+  <si>
+    <t>CELDA 74</t>
+  </si>
+  <si>
+    <t>CELDA 75</t>
+  </si>
+  <si>
+    <t>CELDA 76</t>
+  </si>
+  <si>
+    <t>CELDA 77</t>
+  </si>
+  <si>
+    <t>CELDA 78</t>
+  </si>
+  <si>
+    <t>CELDA 79</t>
+  </si>
+  <si>
+    <t>CELDA 80</t>
+  </si>
+  <si>
+    <t>CELDA 81</t>
+  </si>
+  <si>
+    <t>CELDA 82</t>
+  </si>
+  <si>
+    <t>CELDA 83</t>
+  </si>
+  <si>
+    <t>CELDA 84</t>
+  </si>
+  <si>
+    <t>CELDA 85</t>
+  </si>
+  <si>
+    <t>CELDA 86</t>
+  </si>
+  <si>
+    <t>CELDA 87</t>
+  </si>
+  <si>
+    <t>CELDA 88</t>
+  </si>
+  <si>
+    <t>CELDA 89</t>
+  </si>
+  <si>
+    <t>CELDA 90</t>
+  </si>
+  <si>
+    <t>CELDA 91</t>
+  </si>
+  <si>
+    <t>CELDA 92</t>
+  </si>
+  <si>
+    <t>CELDA 93</t>
+  </si>
+  <si>
+    <t>CELDA 94</t>
+  </si>
+  <si>
+    <t>CELDA 95</t>
+  </si>
+  <si>
+    <t>CELDA 96</t>
+  </si>
+  <si>
+    <t>CELDA 97</t>
+  </si>
+  <si>
+    <t>CELDA 98</t>
+  </si>
+  <si>
+    <t>CELDA 99</t>
+  </si>
+  <si>
+    <t>CELDA 100</t>
+  </si>
+  <si>
+    <t>CELDA 101</t>
+  </si>
+  <si>
+    <t>CELDA 102</t>
+  </si>
+  <si>
+    <t>CELDA 103</t>
+  </si>
+  <si>
+    <t>CELDA 104</t>
+  </si>
+  <si>
+    <t>CELDA 105</t>
+  </si>
+  <si>
+    <t>CELDA 106</t>
+  </si>
+  <si>
+    <t>CELDA 107</t>
+  </si>
+  <si>
+    <t>CELDA 108</t>
+  </si>
+  <si>
+    <t>CELDA 109</t>
+  </si>
+  <si>
+    <t>CELDA 110</t>
+  </si>
+  <si>
+    <t>CELDA 111</t>
+  </si>
+  <si>
+    <t>CELDA 112</t>
+  </si>
+  <si>
+    <t>CELDA 113</t>
+  </si>
+  <si>
+    <t>CELDA 114</t>
+  </si>
+  <si>
+    <t>CELDA 115</t>
+  </si>
+  <si>
+    <t>CELDA 116</t>
+  </si>
+  <si>
+    <t>CELDA 117</t>
+  </si>
+  <si>
+    <t>CELDA 118</t>
+  </si>
+  <si>
+    <t>CELDA 119</t>
+  </si>
+  <si>
+    <t>CELDA 120</t>
+  </si>
+  <si>
+    <t>CELDA 121</t>
+  </si>
+  <si>
+    <t>CELDA 122</t>
+  </si>
+  <si>
+    <t>CELDA 123</t>
+  </si>
+  <si>
+    <t>CELDA 124</t>
+  </si>
+  <si>
+    <t>CELDA 125</t>
+  </si>
+  <si>
+    <t>CELDA 126</t>
+  </si>
+  <si>
+    <t>CELDA 127</t>
+  </si>
+  <si>
+    <t>CELDA 128</t>
+  </si>
+  <si>
+    <t>CELDA 129</t>
+  </si>
+  <si>
+    <t>CELDA 130</t>
+  </si>
+  <si>
+    <t>CELDA 131</t>
+  </si>
+  <si>
+    <t>CELDA 132</t>
+  </si>
+  <si>
+    <t>CELDA 133</t>
+  </si>
+  <si>
+    <t>CELDA 134</t>
+  </si>
+  <si>
+    <t>CELDA 135</t>
+  </si>
+  <si>
+    <t>CELDA 136</t>
+  </si>
+  <si>
+    <t>CELDA 137</t>
+  </si>
+  <si>
+    <t>CELDA 138</t>
+  </si>
+  <si>
+    <t>CELDA 139</t>
+  </si>
+  <si>
+    <t>CELDA 140</t>
+  </si>
+  <si>
+    <t>CELDA 141</t>
+  </si>
+  <si>
+    <t>CELDA 142</t>
+  </si>
+  <si>
+    <t>CELDA 143</t>
+  </si>
+  <si>
+    <t>CELDA 144</t>
+  </si>
+  <si>
+    <t>CELDA 145</t>
+  </si>
+  <si>
+    <t>CELDA 146</t>
+  </si>
+  <si>
+    <t>CELDA 147</t>
+  </si>
+  <si>
+    <t>CELDA 148</t>
+  </si>
+  <si>
+    <t>CELDA 149</t>
+  </si>
+  <si>
+    <t>CELDA 150</t>
+  </si>
+  <si>
+    <t>CELDA 151</t>
+  </si>
+  <si>
+    <t>CELDA 152</t>
+  </si>
+  <si>
+    <t>CELDA 153</t>
+  </si>
+  <si>
+    <t>CELDA 154</t>
+  </si>
+  <si>
+    <t>CELDA 155</t>
+  </si>
+  <si>
+    <t>CELDA 156</t>
+  </si>
+  <si>
+    <t>CELDA 157</t>
+  </si>
+  <si>
+    <t>CELDA 158</t>
+  </si>
+  <si>
+    <t>CELDA 159</t>
+  </si>
+  <si>
+    <t>CELDA 160</t>
+  </si>
+  <si>
+    <t>CELDA 161</t>
+  </si>
+  <si>
+    <t>CELDA 162</t>
+  </si>
+  <si>
+    <t>CELDA 163</t>
+  </si>
+  <si>
+    <t>CELDA 164</t>
+  </si>
+  <si>
+    <t>CELDA 165</t>
+  </si>
+  <si>
+    <t>CELDA 166</t>
+  </si>
+  <si>
+    <t>CELDA 167</t>
+  </si>
+  <si>
+    <t>CELDA 168</t>
+  </si>
+  <si>
+    <t>CELDA 169</t>
+  </si>
+  <si>
+    <t>CELDA 170</t>
+  </si>
+  <si>
+    <t>CELDA 171</t>
+  </si>
+  <si>
+    <t>CELDA 172</t>
+  </si>
+  <si>
+    <t>CELDA 173</t>
+  </si>
+  <si>
+    <t>CELDA 174</t>
+  </si>
+  <si>
+    <t>CELDA 175</t>
+  </si>
+  <si>
+    <t>CELDA 176</t>
+  </si>
+  <si>
+    <t>CELDA 177</t>
+  </si>
+  <si>
+    <t>CELDA 178</t>
+  </si>
+  <si>
+    <t>CELDA 179</t>
+  </si>
+  <si>
+    <t>CELDA 180</t>
+  </si>
+  <si>
+    <t>CELDA 181</t>
+  </si>
+  <si>
+    <t>CELDA 182</t>
+  </si>
+  <si>
+    <t>CELDA 183</t>
+  </si>
+  <si>
+    <t>CELDA 184</t>
+  </si>
+  <si>
+    <t>CELDA 185</t>
+  </si>
+  <si>
+    <t>CELDA 186</t>
+  </si>
+  <si>
+    <t>CELDA 187</t>
+  </si>
+  <si>
+    <t>CELDA 188</t>
+  </si>
+  <si>
+    <t>CELDA 189</t>
+  </si>
+  <si>
+    <t>CELDA 190</t>
+  </si>
+  <si>
+    <t>CELDA 191</t>
+  </si>
+  <si>
+    <t>CELDA 192</t>
+  </si>
+  <si>
+    <t>CELDA 193</t>
+  </si>
+  <si>
+    <t>CELDA 194</t>
+  </si>
+  <si>
+    <t>CELDA 195</t>
+  </si>
+  <si>
+    <t>CELDA 196</t>
+  </si>
+  <si>
+    <t>CELDA 197</t>
+  </si>
+  <si>
+    <t>CELDA 198</t>
+  </si>
+  <si>
+    <t>CELDA 199</t>
+  </si>
+  <si>
+    <t>CELDA 200</t>
+  </si>
+  <si>
+    <t>CELDA 201</t>
+  </si>
+  <si>
+    <t>CELDA 202</t>
+  </si>
+  <si>
+    <t>CELDA 203</t>
+  </si>
+  <si>
+    <t>CELDA 204</t>
+  </si>
+  <si>
+    <t>CELDA 205</t>
+  </si>
+  <si>
+    <t>CELDA 206</t>
+  </si>
+  <si>
+    <t>CELDA 207</t>
+  </si>
+  <si>
+    <t>CELDA 208</t>
+  </si>
+  <si>
+    <t>CELDA 209</t>
+  </si>
+  <si>
+    <t>CELDA 210</t>
+  </si>
+  <si>
+    <t>CELDA 211</t>
+  </si>
+  <si>
+    <t>CELDA 212</t>
+  </si>
+  <si>
+    <t>CELDA 213</t>
+  </si>
+  <si>
+    <t>CELDA 214</t>
+  </si>
+  <si>
+    <t>CELDA 215</t>
+  </si>
+  <si>
+    <t>CELDA 216</t>
+  </si>
+  <si>
+    <t>CELDA 217</t>
+  </si>
+  <si>
+    <t>CELDA 218</t>
+  </si>
+  <si>
+    <t>CELDA 219</t>
+  </si>
+  <si>
+    <t>CELDA 220</t>
+  </si>
+  <si>
+    <t>CELDA 221</t>
+  </si>
+  <si>
+    <t>CELDA 222</t>
+  </si>
+  <si>
+    <t>CELDA 223</t>
+  </si>
+  <si>
+    <t>CELDA 224</t>
+  </si>
+  <si>
+    <t>CELDA 225</t>
+  </si>
+  <si>
+    <t>CELDA 226</t>
+  </si>
+  <si>
+    <t>CELDA 227</t>
+  </si>
+  <si>
+    <t>CELDA 228</t>
+  </si>
+  <si>
+    <t>CELDA 229</t>
+  </si>
+  <si>
+    <t>CELDA 230</t>
+  </si>
+  <si>
+    <t>CELDA 231</t>
+  </si>
+  <si>
+    <t>CELDA 232</t>
+  </si>
+  <si>
+    <t>CELDA 233</t>
+  </si>
+  <si>
+    <t>CELDA 234</t>
+  </si>
+  <si>
+    <t>CELDA 235</t>
+  </si>
+  <si>
+    <t>CELDA 236</t>
+  </si>
+  <si>
+    <t>CELDA 237</t>
+  </si>
+  <si>
+    <t>CELDA 238</t>
+  </si>
+  <si>
+    <t>CELDA 239</t>
+  </si>
+  <si>
+    <t>CELDA 240</t>
+  </si>
+  <si>
+    <t>CELDA 241</t>
+  </si>
+  <si>
+    <t>CELDA 242</t>
+  </si>
+  <si>
+    <t>CELDA 243</t>
+  </si>
+  <si>
+    <t>CELDA 244</t>
+  </si>
+  <si>
+    <t>CELDA 245</t>
+  </si>
+  <si>
+    <t>CELDA 246</t>
+  </si>
+  <si>
+    <t>CELDA 247</t>
+  </si>
+  <si>
+    <t>CELDA 248</t>
+  </si>
+  <si>
+    <t>CELDA 249</t>
+  </si>
+  <si>
+    <t>CELDA 250</t>
+  </si>
+  <si>
+    <t>CELDA 251</t>
+  </si>
+  <si>
+    <t>CELDA 252</t>
+  </si>
+  <si>
+    <t>CELDA 253</t>
+  </si>
+  <si>
+    <t>CELDA 254</t>
+  </si>
+  <si>
+    <t>CELDA 255</t>
+  </si>
+  <si>
+    <t>CELDA 256</t>
+  </si>
+  <si>
+    <t>CELDA 257</t>
+  </si>
+  <si>
+    <t>CELDA 258</t>
+  </si>
+  <si>
+    <t>CELDA 259</t>
+  </si>
+  <si>
+    <t>CELDA 260</t>
+  </si>
+  <si>
+    <t>CELDA 261</t>
+  </si>
+  <si>
+    <t>CELDA 262</t>
+  </si>
+  <si>
+    <t>CELDA 263</t>
+  </si>
+  <si>
+    <t>CELDA 264</t>
+  </si>
+  <si>
+    <t>CELDA 265</t>
+  </si>
+  <si>
+    <t>CELDA 266</t>
+  </si>
+  <si>
+    <t>IF SIMPLE</t>
+  </si>
+  <si>
+    <t>IF DOBLE CON or</t>
+  </si>
+  <si>
+    <t>IF DOBLE CON OR</t>
+  </si>
+  <si>
+    <t>IF DOBLE CON and</t>
+  </si>
+  <si>
+    <t>IF DOBLE CON AND</t>
+  </si>
+  <si>
+    <t>IF SIMPLE CON ELSE</t>
   </si>
 </sst>
 </file>
@@ -315,7 +918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,15 +1030,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,10 +1043,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,11 +1058,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1697,7 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="str">
@@ -1106,7 +1715,7 @@
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1122,7 +1731,7 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1138,7 +1747,7 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1172,7 +1781,7 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -1190,7 +1799,7 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1206,7 +1815,7 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1222,7 +1831,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1256,7 +1865,7 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -1274,7 +1883,7 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1290,7 +1899,7 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1306,7 +1915,7 @@
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1322,7 +1931,7 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1338,7 +1947,7 @@
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -1356,7 +1965,7 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1381,16 +1990,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="18"/>
+    <col min="3" max="3" width="11.42578125" style="17"/>
     <col min="4" max="4" width="29" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2"/>
   </cols>
@@ -1416,14 +2025,14 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E61" si="0">IF(B2=C2,"OK","ERROR")</f>
+        <f t="shared" ref="E2:E65" si="0">IF(B2=C2,"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -1434,10 +2043,10 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1450,10 +2059,10 @@
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1466,10 +2075,10 @@
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="2" t="str">
@@ -1484,10 +2093,10 @@
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1500,10 +2109,10 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1516,11 +2125,11 @@
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>62</v>
+      <c r="D8" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1534,10 +2143,10 @@
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>15</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1550,10 +2159,10 @@
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1566,10 +2175,10 @@
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1582,12 +2191,10 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1600,12 +2207,10 @@
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1618,10 +2223,10 @@
       <c r="B14" s="1">
         <v>16</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>16</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1634,10 +2239,10 @@
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1650,11 +2255,11 @@
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1668,7 +2273,7 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>15</v>
       </c>
       <c r="D17" s="13"/>
@@ -1684,7 +2289,7 @@
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="13"/>
@@ -1700,7 +2305,7 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="13"/>
@@ -1716,12 +2321,10 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1734,12 +2337,10 @@
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1752,7 +2353,7 @@
       <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>4</v>
       </c>
       <c r="D22" s="13"/>
@@ -1768,7 +2369,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="13"/>
@@ -1784,7 +2385,7 @@
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="13"/>
@@ -1800,12 +2401,10 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1818,12 +2417,10 @@
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1836,7 +2433,7 @@
       <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>16</v>
       </c>
       <c r="D27" s="13"/>
@@ -1852,7 +2449,7 @@
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="13"/>
@@ -1868,11 +2465,11 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>66</v>
+      <c r="D29" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1886,10 +2483,10 @@
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>15</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1902,10 +2499,10 @@
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1918,337 +2515,320 @@
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="D34" s="12"/>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>4</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="1">
         <v>16</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>16</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>71</v>
+      <c r="D42" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="E42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1">
         <v>15</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>15</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="G44">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F49" s="19"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>4</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="D51" s="19"/>
       <c r="E51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2256,17 +2836,15 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="D52" s="19"/>
       <c r="E52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2274,15 +2852,15 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="19"/>
       <c r="E53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2290,15 +2868,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2306,15 +2884,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1">
         <v>16</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>16</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2322,41 +2900,49 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="D56" s="19"/>
       <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>91</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B58" s="18">
+        <v>15</v>
+      </c>
+      <c r="C58" s="17">
+        <v>15</v>
+      </c>
+      <c r="D58" s="20"/>
       <c r="E58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2364,8 +2950,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="20"/>
       <c r="E59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2373,8 +2966,15 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="20"/>
       <c r="E60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2382,28 +2982,2047 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="18">
+        <v>4</v>
+      </c>
+      <c r="C65" s="17">
+        <v>4</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="2" t="str">
+        <f t="shared" ref="E66:E129" si="1">IF(B66=C66,"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="B68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <v>16</v>
+      </c>
+      <c r="C70" s="17">
+        <v>16</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="1">
+        <v>15</v>
+      </c>
+      <c r="C73" s="17">
+        <v>15</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="1">
+        <v>16</v>
+      </c>
+      <c r="C78" s="17">
+        <v>16</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>17</v>
+      </c>
+      <c r="C83" s="17">
+        <v>17</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" ref="E130:E193" si="2">IF(B130=C130,"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>153</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>181</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>183</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>185</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>186</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>187</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>189</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>191</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>192</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>193</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>195</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>197</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>199</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>201</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>206</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>207</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>208</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>210</v>
+      </c>
+      <c r="E191" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>211</v>
+      </c>
+      <c r="E192" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>212</v>
+      </c>
+      <c r="E193" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>213</v>
+      </c>
+      <c r="E194" s="2" t="str">
+        <f t="shared" ref="E194:E257" si="3">IF(B194=C194,"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>214</v>
+      </c>
+      <c r="E195" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>215</v>
+      </c>
+      <c r="E196" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>216</v>
+      </c>
+      <c r="E197" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>217</v>
+      </c>
+      <c r="E198" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>218</v>
+      </c>
+      <c r="E199" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>220</v>
+      </c>
+      <c r="E201" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>221</v>
+      </c>
+      <c r="E202" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>222</v>
+      </c>
+      <c r="E203" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>223</v>
+      </c>
+      <c r="E204" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>224</v>
+      </c>
+      <c r="E205" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>226</v>
+      </c>
+      <c r="E207" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>227</v>
+      </c>
+      <c r="E208" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>228</v>
+      </c>
+      <c r="E209" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>229</v>
+      </c>
+      <c r="E210" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>230</v>
+      </c>
+      <c r="E211" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>231</v>
+      </c>
+      <c r="E212" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>232</v>
+      </c>
+      <c r="E213" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>233</v>
+      </c>
+      <c r="E214" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>234</v>
+      </c>
+      <c r="E215" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>235</v>
+      </c>
+      <c r="E216" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>236</v>
+      </c>
+      <c r="E217" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>237</v>
+      </c>
+      <c r="E218" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>238</v>
+      </c>
+      <c r="E219" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>239</v>
+      </c>
+      <c r="E220" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>240</v>
+      </c>
+      <c r="E221" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>241</v>
+      </c>
+      <c r="E222" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>242</v>
+      </c>
+      <c r="E223" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>243</v>
+      </c>
+      <c r="E224" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>244</v>
+      </c>
+      <c r="E225" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>245</v>
+      </c>
+      <c r="E226" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>246</v>
+      </c>
+      <c r="E227" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>247</v>
+      </c>
+      <c r="E228" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>248</v>
+      </c>
+      <c r="E229" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>249</v>
+      </c>
+      <c r="E230" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>250</v>
+      </c>
+      <c r="E231" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>251</v>
+      </c>
+      <c r="E232" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>252</v>
+      </c>
+      <c r="E233" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>253</v>
+      </c>
+      <c r="E234" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>254</v>
+      </c>
+      <c r="E235" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>255</v>
+      </c>
+      <c r="E236" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>256</v>
+      </c>
+      <c r="E237" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>257</v>
+      </c>
+      <c r="E238" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>258</v>
+      </c>
+      <c r="E239" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>259</v>
+      </c>
+      <c r="E240" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>260</v>
+      </c>
+      <c r="E241" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>261</v>
+      </c>
+      <c r="E242" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>262</v>
+      </c>
+      <c r="E243" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>263</v>
+      </c>
+      <c r="E244" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>264</v>
+      </c>
+      <c r="E245" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>265</v>
+      </c>
+      <c r="E246" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>266</v>
+      </c>
+      <c r="E247" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>267</v>
+      </c>
+      <c r="E248" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>268</v>
+      </c>
+      <c r="E249" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>269</v>
+      </c>
+      <c r="E250" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>270</v>
+      </c>
+      <c r="E251" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>271</v>
+      </c>
+      <c r="E252" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>272</v>
+      </c>
+      <c r="E253" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>273</v>
+      </c>
+      <c r="E254" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>274</v>
+      </c>
+      <c r="E255" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>275</v>
+      </c>
+      <c r="E256" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>276</v>
+      </c>
+      <c r="E257" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>277</v>
+      </c>
+      <c r="E258" s="2" t="str">
+        <f t="shared" ref="E258:E267" si="4">IF(B258=C258,"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>278</v>
+      </c>
+      <c r="E259" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>279</v>
+      </c>
+      <c r="E260" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>280</v>
+      </c>
+      <c r="E261" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>281</v>
+      </c>
+      <c r="E262" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>282</v>
+      </c>
+      <c r="E263" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>283</v>
+      </c>
+      <c r="E264" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>284</v>
+      </c>
+      <c r="E265" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>285</v>
+      </c>
+      <c r="E266" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>286</v>
+      </c>
+      <c r="E267" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D39:D41"/>
+  <mergeCells count="8">
+    <mergeCell ref="D57:D71"/>
+    <mergeCell ref="D72:D84"/>
+    <mergeCell ref="D29:D41"/>
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="D42:D56"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -895,13 +895,19 @@
   </si>
   <si>
     <t>IF SIMPLE CON ELSE</t>
+  </si>
+  <si>
+    <t>IF DOBLE CON AND Y ELSE</t>
+  </si>
+  <si>
+    <t>Cantidad de Errores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,8 +923,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,8 +969,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1040,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1024,14 +1080,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,9 +1094,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,26 +1114,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1697,7 +1872,7 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="str">
@@ -1715,7 +1890,7 @@
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1731,7 +1906,7 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1747,7 +1922,7 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1781,7 +1956,7 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -1799,7 +1974,7 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1815,7 +1990,7 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1831,7 +2006,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1865,7 +2040,7 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -1883,7 +2058,7 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1899,7 +2074,7 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1915,7 +2090,7 @@
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1931,7 +2106,7 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1947,7 +2122,7 @@
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -1965,7 +2140,7 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1990,3040 +2165,2526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D84"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="11.42578125" style="17"/>
-    <col min="4" max="4" width="29" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="18"/>
+    <col min="2" max="2" width="11.42578125" style="23"/>
+    <col min="3" max="3" width="11.42578125" style="22"/>
+    <col min="4" max="4" width="29" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E65" si="0">IF(B2=C2,"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="21" t="str">
+        <f>IF(AND(B2=C2,B2&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="19">
+        <f>COUNTIF(E:E,"ERROR")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="21" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="23">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="22">
         <v>10</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="23">
         <v>15</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="22">
         <v>15</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="23">
         <v>16</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="22">
         <v>16</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="23">
         <v>15</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="22">
         <v>15</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2" t="str">
+      <c r="D17" s="11"/>
+      <c r="E17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2" t="str">
+      <c r="D18" s="11"/>
+      <c r="E18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2" t="str">
+      <c r="D19" s="11"/>
+      <c r="E19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2" t="str">
+      <c r="D20" s="11"/>
+      <c r="E20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2" t="str">
+      <c r="D21" s="11"/>
+      <c r="E21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="22">
         <v>4</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2" t="str">
+      <c r="D22" s="11"/>
+      <c r="E22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="2" t="str">
+      <c r="D23" s="11"/>
+      <c r="E23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="2" t="str">
+      <c r="D24" s="11"/>
+      <c r="E24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="2" t="str">
+      <c r="D25" s="11"/>
+      <c r="E25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="2" t="str">
+      <c r="D26" s="11"/>
+      <c r="E26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="23">
         <v>16</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="22">
         <v>16</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="2" t="str">
+      <c r="D27" s="11"/>
+      <c r="E27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="2" t="str">
+      <c r="D28" s="11"/>
+      <c r="E28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="23">
         <v>15</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="22">
         <v>15</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="2" t="str">
+      <c r="E30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="2" t="str">
+      <c r="E31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="2" t="str">
+      <c r="E32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="2" t="str">
+      <c r="E33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="2" t="str">
+      <c r="E34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="23">
         <v>4</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="22">
         <v>4</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="2" t="str">
+      <c r="E35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="2" t="str">
+      <c r="E36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="2" t="str">
+      <c r="E37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="2" t="str">
+      <c r="E38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="2" t="str">
+      <c r="E39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="23">
         <v>16</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="22">
         <v>16</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="2" t="str">
+      <c r="E40" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="2" t="str">
+      <c r="E41" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E42" s="2" t="str">
+      <c r="E42" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="23">
         <v>15</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="22">
         <v>15</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="2" t="str">
+      <c r="D43" s="14"/>
+      <c r="E43" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="2" t="str">
+      <c r="D44" s="14"/>
+      <c r="E44" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="2" t="str">
+      <c r="D45" s="14"/>
+      <c r="E45" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="2" t="str">
+      <c r="D46" s="14"/>
+      <c r="E46" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F49" s="8"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="23">
         <v>4</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="22">
         <v>4</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="2" t="str">
+      <c r="D51" s="14"/>
+      <c r="E51" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="2" t="str">
+      <c r="D52" s="14"/>
+      <c r="E52" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="2" t="str">
+      <c r="D53" s="14"/>
+      <c r="E53" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="2" t="str">
+      <c r="D54" s="14"/>
+      <c r="E54" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="23">
         <v>16</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="22">
         <v>16</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="2" t="str">
+      <c r="D55" s="14"/>
+      <c r="E55" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="2" t="str">
+      <c r="D56" s="14"/>
+      <c r="E56" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E57" s="2" t="str">
+      <c r="E57" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="26">
         <v>15</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="22">
         <v>15</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="2" t="str">
+      <c r="D58" s="10"/>
+      <c r="E58" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="2" t="str">
+      <c r="D59" s="10"/>
+      <c r="E59" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="2" t="str">
+      <c r="D60" s="10"/>
+      <c r="E60" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="2" t="str">
+      <c r="D61" s="10"/>
+      <c r="E61" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="2" t="str">
+      <c r="D62" s="10"/>
+      <c r="E62" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="2" t="str">
+      <c r="D63" s="10"/>
+      <c r="E63" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="2" t="str">
+      <c r="D64" s="10"/>
+      <c r="E64" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="26">
         <v>4</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="22">
         <v>4</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="2" t="str">
+      <c r="D65" s="10"/>
+      <c r="E65" s="21" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E129" si="1">IF(B66=C66,"OK","ERROR")</f>
+      <c r="D66" s="10"/>
+      <c r="E66" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="2" t="str">
+      <c r="D67" s="10"/>
+      <c r="E67" s="21" t="str">
+        <f t="shared" ref="E67:E102" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="17" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="23">
+        <v>16</v>
+      </c>
+      <c r="C70" s="22">
+        <v>16</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="2" t="str">
+      <c r="B72" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="23">
+        <v>15</v>
+      </c>
+      <c r="C73" s="22">
+        <v>15</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C77" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="2" t="str">
+      <c r="D77" s="11"/>
+      <c r="E77" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="23">
         <v>16</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C78" s="22">
         <v>16</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="2" t="str">
+      <c r="D78" s="11"/>
+      <c r="E78" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C79" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="2" t="str">
+      <c r="D79" s="11"/>
+      <c r="E79" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C82" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="2" t="str">
+      <c r="D82" s="11"/>
+      <c r="E82" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="1">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="23">
+        <v>17</v>
+      </c>
+      <c r="C83" s="22">
+        <v>17</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="23">
         <v>15</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C86" s="22">
         <v>15</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="2" t="str">
+      <c r="D86" s="17"/>
+      <c r="E86" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C87" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="2" t="str">
+      <c r="D87" s="17"/>
+      <c r="E87" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C88" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="2" t="str">
+      <c r="D88" s="17"/>
+      <c r="E88" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="2" t="str">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="1" t="s">
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="23">
+        <v>4</v>
+      </c>
+      <c r="C91" s="22">
+        <v>4</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C95" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="2" t="str">
+      <c r="D95" s="17"/>
+      <c r="E95" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="1">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="23">
         <v>16</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C96" s="22">
         <v>16</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="2" t="str">
+      <c r="D96" s="17"/>
+      <c r="E96" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C97" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="2" t="str">
+      <c r="D97" s="17"/>
+      <c r="E97" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C98" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="2" t="str">
+      <c r="D98" s="17"/>
+      <c r="E98" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="2" t="str">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C100" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="2" t="str">
+      <c r="D100" s="17"/>
+      <c r="E100" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="23">
         <v>17</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C101" s="22">
         <v>17</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="2" t="str">
+      <c r="D101" s="17"/>
+      <c r="E101" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C102" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="2" t="str">
+      <c r="D102" s="17"/>
+      <c r="E102" s="21" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>106</v>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>112</v>
-      </c>
-      <c r="E93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>118</v>
-      </c>
-      <c r="E99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" ref="E130:E193" si="2">IF(B130=C130,"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E191" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E192" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E193" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E194" s="2" t="str">
-        <f t="shared" ref="E194:E257" si="3">IF(B194=C194,"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E195" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E196" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E197" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E198" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E199" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E200" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E201" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E202" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E203" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E204" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E205" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E206" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E207" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E208" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E209" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E210" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="E211" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E212" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E213" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="E214" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E215" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E216" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E217" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E218" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E219" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E220" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E221" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="E222" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E223" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="E224" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E225" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E226" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E227" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E228" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E229" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E230" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E231" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="E232" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E233" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E234" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E235" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="E236" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="E237" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E238" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E239" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E240" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E241" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="E242" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E243" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E244" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E245" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E246" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E247" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="E248" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E249" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E250" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="E251" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E252" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E253" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E254" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="E255" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E256" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E257" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E258" s="2" t="str">
-        <f t="shared" ref="E258:E267" si="4">IF(B258=C258,"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E259" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E260" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E261" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E262" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E263" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="E264" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E265" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E266" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="E267" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D85:D102"/>
     <mergeCell ref="D57:D71"/>
     <mergeCell ref="D72:D84"/>
     <mergeCell ref="D29:D41"/>
     <mergeCell ref="D16:D28"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="D42:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
   </mergeCells>
+  <conditionalFormatting sqref="E2:E102">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E2="OK"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E2="ERROR"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -15,8 +15,654 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilo(11)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilo(13)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posTrue = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+x=desapilo()
+escribo(18, puntero_tokens)
+x=desapilo()
+escribo(13,posTrue)
+x=desapilo()
+escribo(13,posTrue)
+x=desapilo()
+escribo(11,puntero_tokens))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilo(11)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilo(13)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posTrue = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilo(18)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posElse = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+x=desapilo()
+escribo(18, puntero_tokens)
+x=desapilo()
+escribo(13,posTrue)
+x=desapilo()
+escribo(11,posFalse)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(11)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(13)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posCondDos = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(18)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(20)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posTrue = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(25)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posFalse = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(11)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(13)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posCondDos = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(18)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(20)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posTrue = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+apilar(25)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posFalse = puntero_tokens</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -882,32 +1528,47 @@
     <t>IF SIMPLE</t>
   </si>
   <si>
-    <t>IF DOBLE CON or</t>
-  </si>
-  <si>
-    <t>IF DOBLE CON OR</t>
-  </si>
-  <si>
-    <t>IF DOBLE CON and</t>
-  </si>
-  <si>
-    <t>IF DOBLE CON AND</t>
-  </si>
-  <si>
     <t>IF SIMPLE CON ELSE</t>
   </si>
   <si>
-    <t>IF DOBLE CON AND Y ELSE</t>
-  </si>
-  <si>
     <t>Cantidad de Errores</t>
+  </si>
+  <si>
+    <t>if (i=15) then { i:= 16 } endif</t>
+  </si>
+  <si>
+    <t>1° condicion</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>if (i=15) then { i:= 16 } else {i:=17} endif</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>if (i=15 and a=4) then { i:= 16 } else {i:=17} endif</t>
+  </si>
+  <si>
+    <t>if (i=15 or a=4) then { i:= 16 } else {i:=17} endif</t>
+  </si>
+  <si>
+    <t>IF CON AND Y ELSE</t>
+  </si>
+  <si>
+    <t>IF CON OR Y ELSE</t>
+  </si>
+  <si>
+    <t>RESULTADO OBTENIDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,8 +1592,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,25 +1635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,8 +1657,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1037,17 +1737,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1064,11 +1753,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,6 +1810,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,66 +1846,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1185,7 +1967,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1209,7 +1991,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,6 +2015,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1245,7 +2039,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1548,9 +2342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +2666,7 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="str">
@@ -1890,7 +2684,7 @@
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1906,7 +2700,7 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1922,7 +2716,7 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1956,7 +2750,7 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -1974,7 +2768,7 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -1990,7 +2784,7 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2006,7 +2800,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2040,7 +2834,7 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -2058,7 +2852,7 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2074,7 +2868,7 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2090,7 +2884,7 @@
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2106,7 +2900,7 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2122,7 +2916,7 @@
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -2140,7 +2934,7 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2165,2524 +2959,2474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18"/>
-    <col min="2" max="2" width="11.42578125" style="23"/>
-    <col min="3" max="3" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="11.42578125" style="12"/>
+    <col min="3" max="3" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="21" t="str">
+      <c r="E2" s="10" t="str">
         <f>IF(AND(B2=C2,B2&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="G2" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="8">
         <f>COUNTIF(E:E,"ERROR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="10" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="21" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="11">
         <v>10</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="12">
         <v>15</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="B16" s="12">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
+        <v>16</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="23">
+      <c r="D20" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11">
+        <v>15</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12">
         <v>16</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C28" s="11">
         <v>16</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="12">
+        <v>17</v>
+      </c>
+      <c r="C33" s="11">
+        <v>17</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="23">
+      <c r="C36" s="11">
         <v>15</v>
       </c>
-      <c r="C17" s="22">
+      <c r="D36" s="41"/>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="12">
+        <v>4</v>
+      </c>
+      <c r="C43" s="11">
+        <v>4</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="12">
+        <v>16</v>
+      </c>
+      <c r="C50" s="11">
+        <v>16</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="12">
+        <v>17</v>
+      </c>
+      <c r="C55" s="11">
+        <v>17</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="12">
         <v>15</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="C58" s="11">
+        <v>15</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="43"/>
+      <c r="E63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="12">
+        <v>4</v>
+      </c>
+      <c r="C65" s="11">
+        <v>4</v>
+      </c>
+      <c r="D65" s="43"/>
+      <c r="E65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="43"/>
+      <c r="E67" s="10" t="str">
+        <f t="shared" ref="E67:E122" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="43"/>
+      <c r="E68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="43"/>
+      <c r="E69" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="43"/>
+      <c r="E70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="C72" s="11">
+        <v>16</v>
+      </c>
+      <c r="D72" s="43"/>
+      <c r="E72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="43"/>
+      <c r="E76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="23">
-        <v>4</v>
-      </c>
-      <c r="C22" s="22">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="23">
-        <v>16</v>
-      </c>
-      <c r="C27" s="22">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="C77" s="11">
+        <v>17</v>
+      </c>
+      <c r="D77" s="43"/>
+      <c r="E77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C78" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E29" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="23">
-        <v>15</v>
-      </c>
-      <c r="C30" s="22">
-        <v>15</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="23">
-        <v>4</v>
-      </c>
-      <c r="C35" s="22">
-        <v>4</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="23">
-        <v>16</v>
-      </c>
-      <c r="C40" s="22">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="23">
-        <v>15</v>
-      </c>
-      <c r="C43" s="22">
-        <v>15</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="23">
-        <v>4</v>
-      </c>
-      <c r="C50" s="22">
-        <v>4</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="23">
-        <v>16</v>
-      </c>
-      <c r="C55" s="22">
-        <v>16</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E57" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="26">
-        <v>15</v>
-      </c>
-      <c r="C58" s="22">
-        <v>15</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="26">
-        <v>4</v>
-      </c>
-      <c r="C65" s="22">
-        <v>4</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="21" t="str">
-        <f t="shared" ref="E67:E102" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="21" t="str">
+      <c r="D78" s="43"/>
+      <c r="E78" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="21" t="str">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="37"/>
+      <c r="E79" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="23">
-        <v>16</v>
-      </c>
-      <c r="C70" s="22">
-        <v>16</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="21" t="str">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="37"/>
+      <c r="E80" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="21" t="str">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="E81" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="21" t="str">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="37"/>
+      <c r="E82" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="23">
-        <v>15</v>
-      </c>
-      <c r="C73" s="22">
-        <v>15</v>
-      </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="21" t="str">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="21" t="str">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="37"/>
+      <c r="E84" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="21" t="str">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="37"/>
+      <c r="E85" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="21" t="str">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="37"/>
+      <c r="E86" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="21" t="str">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="23">
-        <v>16</v>
-      </c>
-      <c r="C78" s="22">
-        <v>16</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="21" t="str">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="37"/>
+      <c r="E88" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="21" t="str">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="37"/>
+      <c r="E89" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="21" t="str">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="21" t="str">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="21" t="str">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="37"/>
+      <c r="E92" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="23">
-        <v>17</v>
-      </c>
-      <c r="C83" s="22">
-        <v>17</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="21" t="str">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="37"/>
+      <c r="E93" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="21" t="str">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="37"/>
+      <c r="E94" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E85" s="21" t="str">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="37"/>
+      <c r="E95" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="23">
-        <v>15</v>
-      </c>
-      <c r="C86" s="22">
-        <v>15</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="21" t="str">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="21" t="str">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="37"/>
+      <c r="E97" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="21" t="str">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="37"/>
+      <c r="E98" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="23" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="37"/>
+      <c r="E99" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="D100" s="37"/>
+      <c r="E100" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="37"/>
+      <c r="E101" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="37"/>
+      <c r="E102" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="21" t="str">
+      <c r="D103" s="37"/>
+      <c r="E103" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>ERROR</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="21" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="37"/>
+      <c r="E104" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="23">
-        <v>4</v>
-      </c>
-      <c r="C91" s="22">
-        <v>4</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="21" t="str">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105" s="37"/>
+      <c r="E105" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="21" t="str">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="37"/>
+      <c r="E106" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="21" t="str">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="21" t="str">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="37"/>
+      <c r="E108" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>ERROR</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="21" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="37"/>
+      <c r="E109" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="23">
-        <v>16</v>
-      </c>
-      <c r="C96" s="22">
-        <v>16</v>
-      </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="21" t="str">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="37"/>
+      <c r="E110" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="21" t="str">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="37"/>
+      <c r="E111" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="21" t="str">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="37"/>
+      <c r="E112" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="21" t="str">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D113" s="37"/>
+      <c r="E113" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="21" t="str">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="37"/>
+      <c r="E114" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="23">
-        <v>17</v>
-      </c>
-      <c r="C101" s="22">
-        <v>17</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="21" t="str">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="37"/>
+      <c r="E115" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="21" t="str">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="37"/>
+      <c r="E116" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+      <c r="D117" s="37"/>
+      <c r="E117" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+      <c r="D118" s="37"/>
+      <c r="E118" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+      <c r="D119" s="37"/>
+      <c r="E119" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="D120" s="37"/>
+      <c r="E120" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+      <c r="D121" s="37"/>
+      <c r="E121" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="D122" s="37"/>
+      <c r="E122" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
+      <c r="A177" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="18" t="s">
+      <c r="A184" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="18" t="s">
+      <c r="A186" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="18" t="s">
+      <c r="A187" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="18" t="s">
+      <c r="A191" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="18" t="s">
+      <c r="A198" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="18" t="s">
+      <c r="A201" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
+      <c r="A202" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
+      <c r="A205" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
+      <c r="A207" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
+      <c r="A208" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
+      <c r="A209" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="18" t="s">
+      <c r="A211" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="18" t="s">
+      <c r="A212" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="18" t="s">
+      <c r="A213" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="18" t="s">
+      <c r="A214" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="18" t="s">
+      <c r="A215" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="18" t="s">
+      <c r="A216" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="18" t="s">
+      <c r="A219" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="18" t="s">
+      <c r="A222" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="18" t="s">
+      <c r="A223" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
+      <c r="A224" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="18" t="s">
+      <c r="A226" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="18" t="s">
+      <c r="A227" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="18" t="s">
+      <c r="A228" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="18" t="s">
+      <c r="A229" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="18" t="s">
+      <c r="A230" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
+      <c r="A232" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="18" t="s">
+      <c r="A233" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="18" t="s">
+      <c r="A234" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="18" t="s">
+      <c r="A236" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="18" t="s">
+      <c r="A237" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="18" t="s">
+      <c r="A239" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="18" t="s">
+      <c r="A240" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="18" t="s">
+      <c r="A241" s="7" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="18" t="s">
+      <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="18" t="s">
+      <c r="A243" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="18" t="s">
+      <c r="A244" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="18" t="s">
+      <c r="A246" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="18" t="s">
+      <c r="A247" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="18" t="s">
+      <c r="A248" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="18" t="s">
+      <c r="A249" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="18" t="s">
+      <c r="A250" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="18" t="s">
+      <c r="A251" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="18" t="s">
+      <c r="A253" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="18" t="s">
+      <c r="A255" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="18" t="s">
+      <c r="A256" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="18" t="s">
+      <c r="A257" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="18" t="s">
+      <c r="A258" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="18" t="s">
+      <c r="A259" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="18" t="s">
+      <c r="A260" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="18" t="s">
+      <c r="A262" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="18" t="s">
+      <c r="A263" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="18" t="s">
+      <c r="A264" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="18" t="s">
+      <c r="A265" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="18" t="s">
+      <c r="A266" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="18" t="s">
+      <c r="A267" s="7" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="D35:D56"/>
+    <mergeCell ref="D57:D78"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D85:D102"/>
-    <mergeCell ref="D57:D71"/>
-    <mergeCell ref="D72:D84"/>
-    <mergeCell ref="D29:D41"/>
-    <mergeCell ref="D16:D28"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="D42:D56"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E102">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="E2:E122">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E2="ERROR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$E2="OK"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E2="ERROR"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4691,13 +5435,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="21" customWidth="1"/>
+    <col min="2" max="5" width="4.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.7109375" style="21" customWidth="1"/>
+    <col min="20" max="20" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="49" width="4.7109375" style="21" customWidth="1"/>
+    <col min="50" max="16384" width="3.7109375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="23">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23">
+        <v>9</v>
+      </c>
+      <c r="E2" s="23">
+        <v>10</v>
+      </c>
+      <c r="F2" s="23">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23">
+        <v>12</v>
+      </c>
+      <c r="H2" s="23">
+        <v>13</v>
+      </c>
+      <c r="I2" s="23">
+        <v>14</v>
+      </c>
+      <c r="J2" s="23">
+        <v>15</v>
+      </c>
+      <c r="K2" s="23">
+        <v>16</v>
+      </c>
+      <c r="L2" s="23">
+        <v>17</v>
+      </c>
+      <c r="M2" s="23">
+        <v>18</v>
+      </c>
+      <c r="N2" s="23">
+        <v>19</v>
+      </c>
+      <c r="O2" s="23">
+        <v>20</v>
+      </c>
+      <c r="P2" s="23">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>22</v>
+      </c>
+      <c r="R2" s="23">
+        <v>23</v>
+      </c>
+      <c r="S2" s="23">
+        <v>24</v>
+      </c>
+      <c r="T2" s="23">
+        <v>25</v>
+      </c>
+      <c r="U2" s="23">
+        <v>26</v>
+      </c>
+      <c r="V2" s="23">
+        <v>27</v>
+      </c>
+      <c r="W2" s="23">
+        <v>28</v>
+      </c>
+      <c r="X2" s="23">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="23">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="23">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="23">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="23">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="23">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="23">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="23">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="23">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="23">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="23">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="23">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="23">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="23">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="23">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="23">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="24">
+        <v>15</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="24">
+        <v>16</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+    </row>
+    <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="23">
+        <v>19</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20</v>
+      </c>
+      <c r="D5" s="23">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23">
+        <v>22</v>
+      </c>
+      <c r="F5" s="23">
+        <v>23</v>
+      </c>
+      <c r="G5" s="23">
+        <v>24</v>
+      </c>
+      <c r="H5" s="23">
+        <v>25</v>
+      </c>
+      <c r="I5" s="23">
+        <v>26</v>
+      </c>
+      <c r="J5" s="23">
+        <v>27</v>
+      </c>
+      <c r="K5" s="23">
+        <v>28</v>
+      </c>
+      <c r="L5" s="23">
+        <v>29</v>
+      </c>
+      <c r="M5" s="23">
+        <v>30</v>
+      </c>
+      <c r="N5" s="23">
+        <v>31</v>
+      </c>
+      <c r="O5" s="23">
+        <v>32</v>
+      </c>
+      <c r="P5" s="23">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>34</v>
+      </c>
+      <c r="R5" s="23">
+        <v>35</v>
+      </c>
+      <c r="S5" s="23">
+        <v>36</v>
+      </c>
+      <c r="T5" s="23">
+        <v>37</v>
+      </c>
+      <c r="U5" s="23">
+        <v>38</v>
+      </c>
+      <c r="V5" s="23">
+        <v>39</v>
+      </c>
+      <c r="W5" s="23">
+        <v>40</v>
+      </c>
+      <c r="X5" s="23">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="23">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="23">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>38</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="23">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="23">
+        <v>41</v>
+      </c>
+      <c r="AK5" s="23">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="23">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>44</v>
+      </c>
+      <c r="AN5" s="23">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="23">
+        <v>47</v>
+      </c>
+      <c r="AQ5" s="23">
+        <v>48</v>
+      </c>
+      <c r="AR5" s="23">
+        <v>49</v>
+      </c>
+      <c r="AS5" s="23">
+        <v>50</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="23">
+        <v>52</v>
+      </c>
+      <c r="AV5" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="24">
+        <v>15</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="24">
+        <v>16</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="24">
+        <v>17</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+    </row>
+    <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="36"/>
+    </row>
+    <row r="8" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="23">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23">
+        <v>35</v>
+      </c>
+      <c r="D8" s="23">
+        <v>36</v>
+      </c>
+      <c r="E8" s="23">
+        <v>37</v>
+      </c>
+      <c r="F8" s="23">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23">
+        <v>39</v>
+      </c>
+      <c r="H8" s="23">
+        <v>40</v>
+      </c>
+      <c r="I8" s="23">
+        <v>41</v>
+      </c>
+      <c r="J8" s="23">
+        <v>42</v>
+      </c>
+      <c r="K8" s="23">
+        <v>43</v>
+      </c>
+      <c r="L8" s="23">
+        <v>44</v>
+      </c>
+      <c r="M8" s="23">
+        <v>45</v>
+      </c>
+      <c r="N8" s="23">
+        <v>46</v>
+      </c>
+      <c r="O8" s="23">
+        <v>47</v>
+      </c>
+      <c r="P8" s="23">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>49</v>
+      </c>
+      <c r="R8" s="23">
+        <v>50</v>
+      </c>
+      <c r="S8" s="23">
+        <v>51</v>
+      </c>
+      <c r="T8" s="23">
+        <v>52</v>
+      </c>
+      <c r="U8" s="23">
+        <v>53</v>
+      </c>
+      <c r="V8" s="23">
+        <v>54</v>
+      </c>
+      <c r="W8" s="23">
+        <v>55</v>
+      </c>
+      <c r="X8" s="23">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>35</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>37</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>38</v>
+      </c>
+      <c r="AH8" s="23">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="23">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="23">
+        <v>41</v>
+      </c>
+      <c r="AK8" s="23">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="23">
+        <v>43</v>
+      </c>
+      <c r="AM8" s="23">
+        <v>44</v>
+      </c>
+      <c r="AN8" s="23">
+        <v>45</v>
+      </c>
+      <c r="AO8" s="23">
+        <v>46</v>
+      </c>
+      <c r="AP8" s="23">
+        <v>47</v>
+      </c>
+      <c r="AQ8" s="23">
+        <v>48</v>
+      </c>
+      <c r="AR8" s="23">
+        <v>49</v>
+      </c>
+      <c r="AS8" s="23">
+        <v>50</v>
+      </c>
+      <c r="AT8" s="23">
+        <v>51</v>
+      </c>
+      <c r="AU8" s="23">
+        <v>52</v>
+      </c>
+      <c r="AV8" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="24">
+        <v>15</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="24">
+        <v>4</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>16</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="24">
+        <v>17</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+    </row>
+    <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="36"/>
+    </row>
+    <row r="11" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="23">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23">
+        <v>57</v>
+      </c>
+      <c r="D11" s="23">
+        <v>58</v>
+      </c>
+      <c r="E11" s="23">
+        <v>59</v>
+      </c>
+      <c r="F11" s="23">
+        <v>60</v>
+      </c>
+      <c r="G11" s="23">
+        <v>61</v>
+      </c>
+      <c r="H11" s="23">
+        <v>62</v>
+      </c>
+      <c r="I11" s="23">
+        <v>63</v>
+      </c>
+      <c r="J11" s="23">
+        <v>64</v>
+      </c>
+      <c r="K11" s="23">
+        <v>65</v>
+      </c>
+      <c r="L11" s="23">
+        <v>66</v>
+      </c>
+      <c r="M11" s="23">
+        <v>67</v>
+      </c>
+      <c r="N11" s="23">
+        <v>68</v>
+      </c>
+      <c r="O11" s="23">
+        <v>69</v>
+      </c>
+      <c r="P11" s="23">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>71</v>
+      </c>
+      <c r="R11" s="23">
+        <v>72</v>
+      </c>
+      <c r="S11" s="23">
+        <v>73</v>
+      </c>
+      <c r="T11" s="23">
+        <v>74</v>
+      </c>
+      <c r="U11" s="23">
+        <v>75</v>
+      </c>
+      <c r="V11" s="23">
+        <v>76</v>
+      </c>
+      <c r="W11" s="23">
+        <v>77</v>
+      </c>
+      <c r="X11" s="23">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>31</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>34</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>37</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>38</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="23">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>41</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="23">
+        <v>43</v>
+      </c>
+      <c r="AM11" s="23">
+        <v>44</v>
+      </c>
+      <c r="AN11" s="23">
+        <v>45</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>46</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>47</v>
+      </c>
+      <c r="AQ11" s="23">
+        <v>48</v>
+      </c>
+      <c r="AR11" s="23">
+        <v>49</v>
+      </c>
+      <c r="AS11" s="23">
+        <v>50</v>
+      </c>
+      <c r="AT11" s="23">
+        <v>51</v>
+      </c>
+      <c r="AU11" s="23">
+        <v>52</v>
+      </c>
+      <c r="AV11" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="24">
+        <v>15</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="24">
+        <v>4</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>16</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="24">
+        <v>17</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="WHILE" sheetId="1" r:id="rId1"/>
-    <sheet name="IF" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="IF-WHILE" sheetId="2" r:id="rId2"/>
+    <sheet name="TEST-IF" sheetId="3" r:id="rId3"/>
+    <sheet name="TEST-WHILE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -662,7 +663,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="307">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1562,6 +1563,27 @@
   </si>
   <si>
     <t>RESULTADO OBTENIDO</t>
+  </si>
+  <si>
+    <t>while(a&lt;7){ i:= 5+b } endw</t>
+  </si>
+  <si>
+    <t>while(a&lt;7 and b&gt;8 ){ i:= 5+b } endw</t>
+  </si>
+  <si>
+    <t>while(a&lt;7 or b&gt;8 ){ i:= 5+b } endw</t>
+  </si>
+  <si>
+    <t>WHILE SIMPLE</t>
+  </si>
+  <si>
+    <t>WHILE CON AND</t>
+  </si>
+  <si>
+    <t>WHILE CON OR</t>
+  </si>
+  <si>
+    <t>###</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1642,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,6 +1706,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1837,15 +1877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,44 +1889,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1918,83 +1940,53 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -2666,7 +2658,7 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="2" t="str">
@@ -2684,7 +2676,7 @@
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2700,7 +2692,7 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2716,7 +2708,7 @@
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2750,7 +2742,7 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="2" t="str">
@@ -2768,7 +2760,7 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2784,7 +2776,7 @@
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2800,7 +2792,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2834,7 +2826,7 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="2" t="str">
@@ -2852,7 +2844,7 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2868,7 +2860,7 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2884,7 +2876,7 @@
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2900,7 +2892,7 @@
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2916,7 +2908,7 @@
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -2934,7 +2926,7 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2961,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +2992,7 @@
       <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="38" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="str">
@@ -3012,7 +3004,7 @@
       </c>
       <c r="H2" s="8">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,7 +3017,7 @@
       <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="10" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3041,7 +3033,7 @@
       <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3057,7 +3049,7 @@
       <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="10" t="str">
@@ -3075,7 +3067,7 @@
       <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3091,7 +3083,7 @@
       <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3107,7 +3099,7 @@
       <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="32" t="s">
         <v>287</v>
       </c>
       <c r="E8" s="10" t="str">
@@ -3125,7 +3117,7 @@
       <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3141,7 +3133,7 @@
       <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3157,7 +3149,7 @@
       <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3173,7 +3165,7 @@
       <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3189,7 +3181,7 @@
       <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3205,7 +3197,7 @@
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3221,7 +3213,7 @@
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3237,7 +3229,7 @@
       <c r="C16" s="11">
         <v>16</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3253,7 +3245,7 @@
       <c r="C17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3269,7 +3261,7 @@
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3285,7 +3277,7 @@
       <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3301,7 +3293,7 @@
       <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="33" t="s">
         <v>288</v>
       </c>
       <c r="E20" s="10" t="str">
@@ -3319,7 +3311,7 @@
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3335,7 +3327,7 @@
       <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3351,7 +3343,7 @@
       <c r="C23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3367,7 +3359,7 @@
       <c r="C24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3383,7 +3375,7 @@
       <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3399,7 +3391,7 @@
       <c r="C26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3415,7 +3407,7 @@
       <c r="C27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3431,7 +3423,7 @@
       <c r="C28" s="11">
         <v>16</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3447,7 +3439,7 @@
       <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3463,7 +3455,7 @@
       <c r="C30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3479,7 +3471,7 @@
       <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3495,7 +3487,7 @@
       <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3511,7 +3503,7 @@
       <c r="C33" s="11">
         <v>17</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3527,7 +3519,7 @@
       <c r="C34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3543,7 +3535,7 @@
       <c r="C35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="32" t="s">
         <v>297</v>
       </c>
       <c r="E35" s="10" t="str">
@@ -3561,7 +3553,7 @@
       <c r="C36" s="11">
         <v>15</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3577,7 +3569,7 @@
       <c r="C37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3593,7 +3585,7 @@
       <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3609,7 +3601,7 @@
       <c r="C39" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3625,7 +3617,7 @@
       <c r="C40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3641,7 +3633,7 @@
       <c r="C41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3657,7 +3649,7 @@
       <c r="C42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3673,7 +3665,7 @@
       <c r="C43" s="11">
         <v>4</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3689,7 +3681,7 @@
       <c r="C44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3705,7 +3697,7 @@
       <c r="C45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3721,7 +3713,7 @@
       <c r="C46" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="41"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3737,7 +3729,7 @@
       <c r="C47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3754,7 +3746,7 @@
       <c r="C48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3771,7 +3763,7 @@
       <c r="C49" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3788,7 +3780,7 @@
       <c r="C50" s="11">
         <v>16</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3805,7 +3797,7 @@
       <c r="C51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3821,7 +3813,7 @@
       <c r="C52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="41"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3831,13 +3823,13 @@
       <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3853,7 +3845,7 @@
       <c r="C54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3869,7 +3861,7 @@
       <c r="C55" s="11">
         <v>17</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3885,7 +3877,7 @@
       <c r="C56" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3901,7 +3893,7 @@
       <c r="C57" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="36" t="s">
         <v>298</v>
       </c>
       <c r="E57" s="10" t="str">
@@ -3919,7 +3911,7 @@
       <c r="C58" s="11">
         <v>15</v>
       </c>
-      <c r="D58" s="43"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3935,7 +3927,7 @@
       <c r="C59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3951,7 +3943,7 @@
       <c r="C60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3967,7 +3959,7 @@
       <c r="C61" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3983,7 +3975,7 @@
       <c r="C62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3999,7 +3991,7 @@
       <c r="C63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4015,7 +4007,7 @@
       <c r="C64" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="43"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4031,7 +4023,7 @@
       <c r="C65" s="11">
         <v>4</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4047,7 +4039,7 @@
       <c r="C66" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="43"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4063,9 +4055,9 @@
       <c r="C67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="10" t="str">
-        <f t="shared" ref="E67:E122" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E67:E128" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4079,7 +4071,7 @@
       <c r="C68" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="43"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4095,7 +4087,7 @@
       <c r="C69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="43"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4111,7 +4103,7 @@
       <c r="C70" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4127,7 +4119,7 @@
       <c r="C71" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4143,7 +4135,7 @@
       <c r="C72" s="11">
         <v>16</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4159,7 +4151,7 @@
       <c r="C73" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4175,7 +4167,7 @@
       <c r="C74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4191,7 +4183,7 @@
       <c r="C75" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="43"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4207,7 +4199,7 @@
       <c r="C76" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="43"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4223,7 +4215,7 @@
       <c r="C77" s="11">
         <v>17</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4239,7 +4231,7 @@
       <c r="C78" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4249,7 +4241,15 @@
       <c r="A79" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="37"/>
+      <c r="B79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>303</v>
+      </c>
       <c r="E79" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4259,7 +4259,13 @@
       <c r="A80" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="37"/>
+      <c r="B80" s="12">
+        <v>7</v>
+      </c>
+      <c r="C80" s="11">
+        <v>7</v>
+      </c>
+      <c r="D80" s="50"/>
       <c r="E80" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4269,7 +4275,13 @@
       <c r="A81" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="37"/>
+      <c r="B81" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="50"/>
       <c r="E81" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4279,7 +4291,13 @@
       <c r="A82" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="37"/>
+      <c r="B82" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="50"/>
       <c r="E82" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4289,17 +4307,29 @@
       <c r="A83" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="B83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="50"/>
       <c r="E83" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="37"/>
+      <c r="B84" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="50"/>
       <c r="E84" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4309,17 +4339,29 @@
       <c r="A85" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="37"/>
+      <c r="B85" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" s="50"/>
       <c r="E85" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="37"/>
+      <c r="B86" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="50"/>
       <c r="E86" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4329,7 +4371,13 @@
       <c r="A87" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="37"/>
+      <c r="B87" s="12">
+        <v>5</v>
+      </c>
+      <c r="C87" s="11">
+        <v>5</v>
+      </c>
+      <c r="D87" s="50"/>
       <c r="E87" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4339,7 +4387,13 @@
       <c r="A88" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="B88" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="50"/>
       <c r="E88" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4349,7 +4403,13 @@
       <c r="A89" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="37"/>
+      <c r="B89" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="50"/>
       <c r="E89" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4359,7 +4419,13 @@
       <c r="A90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="37"/>
+      <c r="B90" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="50"/>
       <c r="E90" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4369,7 +4435,15 @@
       <c r="A91" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="37"/>
+      <c r="B91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="E91" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4379,7 +4453,13 @@
       <c r="A92" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="B92" s="12">
+        <v>7</v>
+      </c>
+      <c r="C92" s="11">
+        <v>7</v>
+      </c>
+      <c r="D92" s="34"/>
       <c r="E92" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4389,7 +4469,13 @@
       <c r="A93" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="37"/>
+      <c r="B93" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="34"/>
       <c r="E93" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4399,7 +4485,13 @@
       <c r="A94" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="37"/>
+      <c r="B94" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="34"/>
       <c r="E94" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4409,18 +4501,29 @@
       <c r="A95" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="37"/>
+      <c r="B95" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" s="34"/>
       <c r="E95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="D96" s="37"/>
+      <c r="B96" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="34"/>
       <c r="E96" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4430,17 +4533,29 @@
       <c r="A97" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="37"/>
+      <c r="B97" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" s="34"/>
       <c r="E97" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="37"/>
+      <c r="B98" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="34"/>
       <c r="E98" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4450,7 +4565,13 @@
       <c r="A99" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="B99" s="12">
+        <v>8</v>
+      </c>
+      <c r="C99" s="11">
+        <v>8</v>
+      </c>
+      <c r="D99" s="34"/>
       <c r="E99" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4460,7 +4581,13 @@
       <c r="A100" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="37"/>
+      <c r="B100" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="34"/>
       <c r="E100" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4470,7 +4597,13 @@
       <c r="A101" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="37"/>
+      <c r="B101" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="34"/>
       <c r="E101" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4480,17 +4613,29 @@
       <c r="A102" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="37"/>
+      <c r="B102" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="34"/>
       <c r="E102" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D103" s="37"/>
+      <c r="B103" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="34"/>
       <c r="E103" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4500,17 +4645,29 @@
       <c r="A104" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D104" s="37"/>
+      <c r="B104" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" s="34"/>
       <c r="E104" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="37"/>
+      <c r="B105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="34"/>
       <c r="E105" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4520,7 +4677,13 @@
       <c r="A106" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="B106" s="12">
+        <v>5</v>
+      </c>
+      <c r="C106" s="11">
+        <v>5</v>
+      </c>
+      <c r="D106" s="34"/>
       <c r="E106" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4530,8 +4693,13 @@
       <c r="A107" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="D107" s="37"/>
+      <c r="B107" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="34"/>
       <c r="E107" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4541,7 +4709,13 @@
       <c r="A108" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="37"/>
+      <c r="B108" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="34"/>
       <c r="E108" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4551,7 +4725,13 @@
       <c r="A109" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D109" s="37"/>
+      <c r="B109" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="34"/>
       <c r="E109" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4561,7 +4741,15 @@
       <c r="A110" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="37"/>
+      <c r="B110" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>305</v>
+      </c>
       <c r="E110" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4571,7 +4759,13 @@
       <c r="A111" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="37"/>
+      <c r="B111" s="12">
+        <v>7</v>
+      </c>
+      <c r="C111" s="11">
+        <v>7</v>
+      </c>
+      <c r="D111" s="52"/>
       <c r="E111" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4581,7 +4775,13 @@
       <c r="A112" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="37"/>
+      <c r="B112" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="52"/>
       <c r="E112" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4591,7 +4791,13 @@
       <c r="A113" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="B113" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="52"/>
       <c r="E113" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4601,17 +4807,29 @@
       <c r="A114" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="37"/>
+      <c r="B114" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="52"/>
       <c r="E114" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="37"/>
+      <c r="B115" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="52"/>
       <c r="E115" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4621,17 +4839,29 @@
       <c r="A116" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D116" s="37"/>
+      <c r="B116" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" s="52"/>
       <c r="E116" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D117" s="37"/>
+      <c r="B117" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="52"/>
       <c r="E117" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4641,7 +4871,13 @@
       <c r="A118" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D118" s="37"/>
+      <c r="B118" s="12">
+        <v>8</v>
+      </c>
+      <c r="C118" s="11">
+        <v>8</v>
+      </c>
+      <c r="D118" s="52"/>
       <c r="E118" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4651,7 +4887,13 @@
       <c r="A119" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D119" s="37"/>
+      <c r="B119" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="52"/>
       <c r="E119" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4661,7 +4903,13 @@
       <c r="A120" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="B120" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="52"/>
       <c r="E120" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4671,17 +4919,29 @@
       <c r="A121" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D121" s="37"/>
+      <c r="B121" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D121" s="52"/>
       <c r="E121" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D122" s="37"/>
+      <c r="B122" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="52"/>
       <c r="E122" s="10" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4691,31 +4951,97 @@
       <c r="A123" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="B123" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="52"/>
+      <c r="E123" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>ERROR</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="B124" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="52"/>
+      <c r="E124" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="B125" s="12">
+        <v>5</v>
+      </c>
+      <c r="C125" s="11">
+        <v>5</v>
+      </c>
+      <c r="D125" s="52"/>
+      <c r="E125" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="B126" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="52"/>
+      <c r="E126" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="B127" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="52"/>
+      <c r="E127" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="B128" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="52"/>
+      <c r="E128" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
@@ -5413,7 +5739,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="D79:D90"/>
+    <mergeCell ref="D91:D109"/>
+    <mergeCell ref="D110:D128"/>
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="D20:D34"/>
     <mergeCell ref="D35:D56"/>
@@ -5421,11 +5750,11 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E122">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E2:E128">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5439,1061 +5768,1061 @@
   <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="21" customWidth="1"/>
-    <col min="2" max="5" width="4.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.7109375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.7109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="49" width="4.7109375" style="21" customWidth="1"/>
-    <col min="50" max="16384" width="3.7109375" style="21"/>
+    <col min="1" max="1" width="44.42578125" style="18" customWidth="1"/>
+    <col min="2" max="5" width="4.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="49" width="4.7109375" style="18" customWidth="1"/>
+    <col min="50" max="16384" width="3.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:48" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>7</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>8</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>9</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>10</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>11</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="20">
         <v>12</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="20">
         <v>13</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="20">
         <v>14</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="20">
         <v>15</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="20">
         <v>16</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>17</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="20">
         <v>18</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="20">
         <v>19</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="20">
         <v>20</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="20">
         <v>21</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="20">
         <v>22</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="20">
         <v>23</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="20">
         <v>24</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="20">
         <v>25</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="20">
         <v>26</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="20">
         <v>27</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="20">
         <v>28</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="20">
         <v>29</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="20">
         <v>30</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2" s="20">
         <v>31</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="20">
         <v>32</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="20">
         <v>33</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="20">
         <v>34</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="20">
         <v>35</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="20">
         <v>36</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AF2" s="20">
         <v>37</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AG2" s="20">
         <v>38</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AH2" s="20">
         <v>39</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AI2" s="20">
         <v>40</v>
       </c>
-      <c r="AJ2" s="23">
+      <c r="AJ2" s="20">
         <v>41</v>
       </c>
-      <c r="AK2" s="23">
+      <c r="AK2" s="20">
         <v>42</v>
       </c>
-      <c r="AL2" s="23">
+      <c r="AL2" s="20">
         <v>43</v>
       </c>
-      <c r="AM2" s="23">
+      <c r="AM2" s="20">
         <v>44</v>
       </c>
-      <c r="AN2" s="23">
+      <c r="AN2" s="20">
         <v>45</v>
       </c>
-      <c r="AO2" s="23">
+      <c r="AO2" s="20">
         <v>46</v>
       </c>
-      <c r="AP2" s="23">
+      <c r="AP2" s="20">
         <v>47</v>
       </c>
-      <c r="AQ2" s="23">
+      <c r="AQ2" s="20">
         <v>48</v>
       </c>
-      <c r="AR2" s="23">
+      <c r="AR2" s="20">
         <v>49</v>
       </c>
-      <c r="AS2" s="23">
+      <c r="AS2" s="20">
         <v>50</v>
       </c>
-      <c r="AT2" s="23">
+      <c r="AT2" s="20">
         <v>51</v>
       </c>
-      <c r="AU2" s="23">
+      <c r="AU2" s="20">
         <v>52</v>
       </c>
-      <c r="AV2" s="23">
+      <c r="AV2" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="21">
         <v>15</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="21">
         <v>16</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="32" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-    </row>
-    <row r="5" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+    </row>
+    <row r="5" spans="1:48" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>19</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>20</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>21</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>22</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>23</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>24</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>25</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>26</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>27</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>28</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>29</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>30</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <v>31</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="20">
         <v>32</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="20">
         <v>33</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="20">
         <v>34</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="20">
         <v>35</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="20">
         <v>36</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="20">
         <v>37</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="20">
         <v>38</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="20">
         <v>39</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="20">
         <v>40</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="20">
         <v>29</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="20">
         <v>30</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="20">
         <v>31</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="20">
         <v>32</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="20">
         <v>33</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="20">
         <v>34</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="20">
         <v>35</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="20">
         <v>36</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="20">
         <v>37</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AG5" s="20">
         <v>38</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AH5" s="20">
         <v>39</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="20">
         <v>40</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="20">
         <v>41</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="20">
         <v>42</v>
       </c>
-      <c r="AL5" s="23">
+      <c r="AL5" s="20">
         <v>43</v>
       </c>
-      <c r="AM5" s="23">
+      <c r="AM5" s="20">
         <v>44</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="20">
         <v>45</v>
       </c>
-      <c r="AO5" s="23">
+      <c r="AO5" s="20">
         <v>46</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AP5" s="20">
         <v>47</v>
       </c>
-      <c r="AQ5" s="23">
+      <c r="AQ5" s="20">
         <v>48</v>
       </c>
-      <c r="AR5" s="23">
+      <c r="AR5" s="20">
         <v>49</v>
       </c>
-      <c r="AS5" s="23">
+      <c r="AS5" s="20">
         <v>50</v>
       </c>
-      <c r="AT5" s="23">
+      <c r="AT5" s="20">
         <v>51</v>
       </c>
-      <c r="AU5" s="23">
+      <c r="AU5" s="20">
         <v>52</v>
       </c>
-      <c r="AV5" s="23">
+      <c r="AV5" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>15</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>16</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="21">
         <v>17</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="33" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="28" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="32" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="36"/>
-    </row>
-    <row r="8" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="23"/>
+    </row>
+    <row r="8" spans="1:48" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>34</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>35</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>36</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>37</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>38</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>39</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <v>40</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>41</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <v>42</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <v>43</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>44</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>45</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="20">
         <v>46</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="20">
         <v>47</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="20">
         <v>48</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="20">
         <v>49</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="20">
         <v>50</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="20">
         <v>51</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="20">
         <v>52</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="20">
         <v>53</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="20">
         <v>54</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="20">
         <v>55</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="20">
         <v>56</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="20">
         <v>30</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="20">
         <v>31</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="20">
         <v>32</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="20">
         <v>33</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="20">
         <v>34</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="20">
         <v>35</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="20">
         <v>36</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AF8" s="20">
         <v>37</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AG8" s="20">
         <v>38</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AH8" s="20">
         <v>39</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AI8" s="20">
         <v>40</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AJ8" s="20">
         <v>41</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AK8" s="20">
         <v>42</v>
       </c>
-      <c r="AL8" s="23">
+      <c r="AL8" s="20">
         <v>43</v>
       </c>
-      <c r="AM8" s="23">
+      <c r="AM8" s="20">
         <v>44</v>
       </c>
-      <c r="AN8" s="23">
+      <c r="AN8" s="20">
         <v>45</v>
       </c>
-      <c r="AO8" s="23">
+      <c r="AO8" s="20">
         <v>46</v>
       </c>
-      <c r="AP8" s="23">
+      <c r="AP8" s="20">
         <v>47</v>
       </c>
-      <c r="AQ8" s="23">
+      <c r="AQ8" s="20">
         <v>48</v>
       </c>
-      <c r="AR8" s="23">
+      <c r="AR8" s="20">
         <v>49</v>
       </c>
-      <c r="AS8" s="23">
+      <c r="AS8" s="20">
         <v>50</v>
       </c>
-      <c r="AT8" s="23">
+      <c r="AT8" s="20">
         <v>51</v>
       </c>
-      <c r="AU8" s="23">
+      <c r="AU8" s="20">
         <v>52</v>
       </c>
-      <c r="AV8" s="23">
+      <c r="AV8" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="21">
         <v>15</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>4</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="21">
         <v>16</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="21">
         <v>17</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="33" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="28" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="32" t="s">
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="36"/>
-    </row>
-    <row r="11" spans="1:48" s="22" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="23"/>
+    </row>
+    <row r="11" spans="1:48" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="20">
         <v>56</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>57</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>58</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>59</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>60</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>61</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <v>62</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <v>63</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <v>64</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <v>65</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <v>66</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>67</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <v>68</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="20">
         <v>69</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="20">
         <v>70</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="20">
         <v>71</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="20">
         <v>72</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="20">
         <v>73</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="20">
         <v>74</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="20">
         <v>75</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="20">
         <v>76</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="20">
         <v>77</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="20">
         <v>78</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="20">
         <v>30</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="20">
         <v>31</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA11" s="20">
         <v>32</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="20">
         <v>33</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="20">
         <v>34</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="20">
         <v>35</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AE11" s="20">
         <v>36</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="20">
         <v>37</v>
       </c>
-      <c r="AG11" s="23">
+      <c r="AG11" s="20">
         <v>38</v>
       </c>
-      <c r="AH11" s="23">
+      <c r="AH11" s="20">
         <v>39</v>
       </c>
-      <c r="AI11" s="23">
+      <c r="AI11" s="20">
         <v>40</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AJ11" s="20">
         <v>41</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AK11" s="20">
         <v>42</v>
       </c>
-      <c r="AL11" s="23">
+      <c r="AL11" s="20">
         <v>43</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AM11" s="20">
         <v>44</v>
       </c>
-      <c r="AN11" s="23">
+      <c r="AN11" s="20">
         <v>45</v>
       </c>
-      <c r="AO11" s="23">
+      <c r="AO11" s="20">
         <v>46</v>
       </c>
-      <c r="AP11" s="23">
+      <c r="AP11" s="20">
         <v>47</v>
       </c>
-      <c r="AQ11" s="23">
+      <c r="AQ11" s="20">
         <v>48</v>
       </c>
-      <c r="AR11" s="23">
+      <c r="AR11" s="20">
         <v>49</v>
       </c>
-      <c r="AS11" s="23">
+      <c r="AS11" s="20">
         <v>50</v>
       </c>
-      <c r="AT11" s="23">
+      <c r="AT11" s="20">
         <v>51</v>
       </c>
-      <c r="AU11" s="23">
+      <c r="AU11" s="20">
         <v>52</v>
       </c>
-      <c r="AV11" s="23">
+      <c r="AV11" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>15</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>4</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="21">
         <v>16</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="21">
         <v>17</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6519,4 +6848,458 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="18" customWidth="1"/>
+    <col min="2" max="5" width="4.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.7109375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="3.7109375" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+    </row>
+    <row r="2" spans="1:21" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="20">
+        <v>78</v>
+      </c>
+      <c r="C2" s="20">
+        <v>79</v>
+      </c>
+      <c r="D2" s="20">
+        <v>80</v>
+      </c>
+      <c r="E2" s="20">
+        <v>81</v>
+      </c>
+      <c r="F2" s="20">
+        <v>82</v>
+      </c>
+      <c r="G2" s="20">
+        <v>83</v>
+      </c>
+      <c r="H2" s="20">
+        <v>84</v>
+      </c>
+      <c r="I2" s="20">
+        <v>85</v>
+      </c>
+      <c r="J2" s="20">
+        <v>86</v>
+      </c>
+      <c r="K2" s="20">
+        <v>87</v>
+      </c>
+      <c r="L2" s="20">
+        <v>88</v>
+      </c>
+      <c r="M2" s="20">
+        <v>89</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="25">
+        <v>5</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+    </row>
+    <row r="5" spans="1:21" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="20">
+        <v>90</v>
+      </c>
+      <c r="C5" s="20">
+        <v>91</v>
+      </c>
+      <c r="D5" s="20">
+        <v>92</v>
+      </c>
+      <c r="E5" s="20">
+        <v>93</v>
+      </c>
+      <c r="F5" s="20">
+        <v>94</v>
+      </c>
+      <c r="G5" s="20">
+        <v>95</v>
+      </c>
+      <c r="H5" s="20">
+        <v>96</v>
+      </c>
+      <c r="I5" s="20">
+        <v>97</v>
+      </c>
+      <c r="J5" s="20">
+        <v>98</v>
+      </c>
+      <c r="K5" s="20">
+        <v>99</v>
+      </c>
+      <c r="L5" s="20">
+        <v>100</v>
+      </c>
+      <c r="M5" s="20">
+        <v>101</v>
+      </c>
+      <c r="N5" s="20">
+        <v>102</v>
+      </c>
+      <c r="O5" s="20">
+        <v>103</v>
+      </c>
+      <c r="P5" s="20">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>105</v>
+      </c>
+      <c r="R5" s="20">
+        <v>106</v>
+      </c>
+      <c r="S5" s="20">
+        <v>107</v>
+      </c>
+      <c r="T5" s="20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="25">
+        <v>7</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="25">
+        <v>8</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>5</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
+    </row>
+    <row r="8" spans="1:21" s="19" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="20">
+        <v>109</v>
+      </c>
+      <c r="C8" s="20">
+        <v>110</v>
+      </c>
+      <c r="D8" s="20">
+        <v>111</v>
+      </c>
+      <c r="E8" s="20">
+        <v>112</v>
+      </c>
+      <c r="F8" s="20">
+        <v>113</v>
+      </c>
+      <c r="G8" s="20">
+        <v>114</v>
+      </c>
+      <c r="H8" s="20">
+        <v>115</v>
+      </c>
+      <c r="I8" s="20">
+        <v>116</v>
+      </c>
+      <c r="J8" s="20">
+        <v>117</v>
+      </c>
+      <c r="K8" s="20">
+        <v>118</v>
+      </c>
+      <c r="L8" s="20">
+        <v>119</v>
+      </c>
+      <c r="M8" s="20">
+        <v>120</v>
+      </c>
+      <c r="N8" s="20">
+        <v>121</v>
+      </c>
+      <c r="O8" s="20">
+        <v>122</v>
+      </c>
+      <c r="P8" s="20">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>124</v>
+      </c>
+      <c r="R8" s="20">
+        <v>125</v>
+      </c>
+      <c r="S8" s="20">
+        <v>126</v>
+      </c>
+      <c r="T8" s="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="25">
+        <v>8</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>5</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mauro\Cloud\GitHub\Compilador\Segunda_Entrega\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950"/>
   </bookViews>
@@ -10,8 +15,9 @@
     <sheet name="TEST COMPLETO" sheetId="2" r:id="rId1"/>
     <sheet name="TEST-IF" sheetId="3" r:id="rId2"/>
     <sheet name="TEST-WHILE" sheetId="4" r:id="rId3"/>
+    <sheet name="TEST-ASIGMUL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +27,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="N5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
+    <comment ref="M8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0">
+    <comment ref="T8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U8" authorId="0">
+    <comment ref="U8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0">
+    <comment ref="M11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="O11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="P11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0">
+    <comment ref="T11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="0">
+    <comment ref="U11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="307">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1565,12 +1571,31 @@
   </si>
   <si>
     <t>1° desapilado -&gt; parte verdadera</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>i:=1 
+b:=10</t>
+  </si>
+  <si>
+    <t>desapilo y asigno</t>
+  </si>
+  <si>
+    <t>a:=b:=i:=8</t>
+  </si>
+  <si>
+    <t>ASIGNACION MULTIPLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1623,7 +1648,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1692,18 +1717,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1796,11 +1827,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,7 +1936,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1881,7 +1954,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,9 +1973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,6 +2003,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,6 +2054,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2011,7 +2105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2046,7 +2140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2258,7 +2352,7 @@
   <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2390,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2321,7 +2415,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2337,7 +2431,7 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2353,7 +2447,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2371,7 +2465,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2387,7 +2481,7 @@
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2403,7 +2497,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2421,7 +2515,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2437,7 +2531,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2453,7 +2547,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2469,7 +2563,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2485,7 +2579,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2501,7 +2595,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2517,7 +2611,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2533,7 +2627,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2549,7 +2643,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2565,7 +2659,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2581,7 +2675,7 @@
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2597,7 +2691,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="31" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2615,7 +2709,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2631,7 +2725,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2647,7 +2741,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2663,7 +2757,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2679,7 +2773,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2695,7 +2789,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2711,7 +2805,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2727,7 +2821,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2743,7 +2837,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2759,7 +2853,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2775,7 +2869,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2791,7 +2885,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2807,7 +2901,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2823,7 +2917,7 @@
       <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2839,7 +2933,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="36" t="s">
         <v>291</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -2857,7 +2951,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2873,7 +2967,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2889,7 +2983,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2905,7 +2999,7 @@
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2921,7 +3015,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2937,7 +3031,7 @@
       <c r="C41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2953,7 +3047,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2969,7 +3063,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2985,7 +3079,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3001,7 +3095,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3017,7 +3111,7 @@
       <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3033,7 +3127,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3050,7 +3144,7 @@
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3067,7 +3161,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3084,7 +3178,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3101,7 +3195,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3117,7 +3211,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3127,13 +3221,13 @@
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3146,10 +3240,10 @@
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3165,7 +3259,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3181,7 +3275,7 @@
       <c r="C56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3197,7 +3291,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="38" t="s">
         <v>292</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3215,7 +3309,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3231,7 +3325,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3247,7 +3341,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="34"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3263,7 +3357,7 @@
       <c r="C61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="34"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3279,7 +3373,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3295,7 +3389,7 @@
       <c r="C63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3311,7 +3405,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="34"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3327,7 +3421,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="34"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3343,7 +3437,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3359,9 +3453,9 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="34"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E128" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -3375,7 +3469,7 @@
       <c r="C68" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="34"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3391,7 +3485,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3407,7 +3501,7 @@
       <c r="C70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="34"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3423,7 +3517,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3439,7 +3533,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="34"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3455,7 +3549,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="34"/>
+      <c r="D73" s="39"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3471,7 +3565,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="34"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3487,7 +3581,7 @@
       <c r="C75" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="34"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3503,7 +3597,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3519,7 +3613,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3535,7 +3629,7 @@
       <c r="C78" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3551,7 +3645,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="30" t="s">
         <v>297</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3569,7 +3663,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="27"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3585,7 +3679,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="27"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3601,7 +3695,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="27"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3617,7 +3711,7 @@
       <c r="C83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="27"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3633,7 +3727,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="27"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3649,7 +3743,7 @@
       <c r="C85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="27"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3665,7 +3759,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="27"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3681,7 +3775,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="27"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3697,7 +3791,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="27"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3713,7 +3807,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="27"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3729,7 +3823,7 @@
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3745,7 +3839,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="31" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -3763,7 +3857,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="29"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3779,7 +3873,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="29"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3795,7 +3889,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="29"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3811,7 +3905,7 @@
       <c r="C95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="29"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3827,7 +3921,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="29"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3843,7 +3937,7 @@
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="29"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3859,7 +3953,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="29"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3875,7 +3969,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="29"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3891,7 +3985,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="29"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3907,7 +4001,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="29"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3923,7 +4017,7 @@
       <c r="C102" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="29"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3939,7 +4033,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="29"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3955,7 +4049,7 @@
       <c r="C104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="29"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3971,7 +4065,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="29"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3987,7 +4081,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="29"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4003,7 +4097,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="29"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4019,7 +4113,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="29"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4035,7 +4129,7 @@
       <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="29"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4051,7 +4145,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="34" t="s">
         <v>299</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -4069,7 +4163,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="30"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4085,7 +4179,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="30"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4101,7 +4195,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="30"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4117,7 +4211,7 @@
       <c r="C114" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="30"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4133,7 +4227,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="30"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4149,7 +4243,7 @@
       <c r="C116" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="30"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4165,7 +4259,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="30"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4181,7 +4275,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="30"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4197,7 +4291,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="30"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4213,7 +4307,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="30"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4229,7 +4323,7 @@
       <c r="C121" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="30"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4245,7 +4339,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="30"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4261,7 +4355,7 @@
       <c r="C123" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="30"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4277,7 +4371,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="30"/>
+      <c r="D124" s="34"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4293,7 +4387,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="30"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4309,7 +4403,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="30"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4325,7 +4419,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="30"/>
+      <c r="D127" s="34"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4341,248 +4435,451 @@
       <c r="C128" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="30"/>
+      <c r="D128" s="35"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="E129" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="8">
+        <v>8</v>
+      </c>
+      <c r="C130" s="7">
+        <v>8</v>
+      </c>
+      <c r="D130" s="53"/>
+      <c r="E130" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="53"/>
+      <c r="E131" s="6" t="str">
+        <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="53"/>
+      <c r="E132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="8">
+        <v>8</v>
+      </c>
+      <c r="C133" s="7">
+        <v>8</v>
+      </c>
+      <c r="D133" s="53"/>
+      <c r="E133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="53"/>
+      <c r="E134" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="53"/>
+      <c r="E135" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="8">
+        <v>8</v>
+      </c>
+      <c r="C136" s="7">
+        <v>8</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="54"/>
+      <c r="E137" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C138" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C139" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C140" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C141" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C142" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C143" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C146" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C147" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C148" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C149" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C150" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C151" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C152" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C153" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C154" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C155" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C156" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C157" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C158" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C159" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C165" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C166" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C167" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C168" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C169" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C170" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C171" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>189</v>
       </c>
@@ -5043,7 +5340,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D129:D137"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D79:D90"/>
@@ -5054,7 +5352,7 @@
     <mergeCell ref="D35:D56"/>
     <mergeCell ref="D57:D78"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E128">
+  <conditionalFormatting sqref="E2:E137">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
@@ -5093,25 +5391,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="45" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="16">
@@ -5257,7 +5555,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -5331,31 +5629,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="36" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="48" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="16">
@@ -5501,7 +5799,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -5581,41 +5879,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="37" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="36" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="48" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="16">
@@ -5761,7 +6059,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -5855,41 +6153,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="37" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="36" t="s">
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="48" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="16">
@@ -6035,7 +6333,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6159,7 +6457,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6178,27 +6476,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="45" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="16">
@@ -6246,7 +6544,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -6292,34 +6590,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="37" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="46"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="48" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="16">
@@ -6381,7 +6679,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -6441,34 +6739,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="37" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="48" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="16">
@@ -6530,7 +6828,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
@@ -6611,4 +6909,187 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="23">
+        <v>10</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="16">
+        <v>128</v>
+      </c>
+      <c r="C6" s="16">
+        <v>129</v>
+      </c>
+      <c r="D6" s="16">
+        <v>130</v>
+      </c>
+      <c r="E6" s="16">
+        <v>131</v>
+      </c>
+      <c r="F6" s="16">
+        <v>132</v>
+      </c>
+      <c r="G6" s="16">
+        <v>133</v>
+      </c>
+      <c r="H6" s="16">
+        <v>134</v>
+      </c>
+      <c r="I6" s="16">
+        <v>135</v>
+      </c>
+      <c r="J6" s="16">
+        <v>136</v>
+      </c>
+      <c r="K6" s="16">
+        <v>137</v>
+      </c>
+      <c r="L6" s="16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="23">
+        <v>8</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TEST COMPLETO" sheetId="2" r:id="rId1"/>
     <sheet name="TEST-IF" sheetId="3" r:id="rId2"/>
     <sheet name="TEST-WHILE" sheetId="4" r:id="rId3"/>
-    <sheet name="TEST-ASIGMUL" sheetId="5" r:id="rId4"/>
+    <sheet name="TEST-ASIGMUL-BETWEEN" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="308">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1574,9 +1574,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>###</t>
   </si>
   <si>
     <t>i:=1 
@@ -1590,6 +1587,12 @@
   </si>
   <si>
     <t>ASIGNACION MULTIPLE</t>
+  </si>
+  <si>
+    <t>BETWEEN (a,[2;a*(b+4)])</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1942,6 +1945,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,6 +1993,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1994,30 +2021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,10 +2352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,13 +2390,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2409,13 +2415,13 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2425,13 +2431,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2441,13 +2447,13 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2459,13 +2465,13 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2475,13 +2481,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2497,7 +2503,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="41" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2515,7 +2521,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2531,7 +2537,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2547,7 +2553,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2563,7 +2569,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2579,7 +2585,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2595,7 +2601,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2611,7 +2617,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2627,7 +2633,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2643,7 +2649,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2659,7 +2665,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2675,7 +2681,7 @@
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2691,7 +2697,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2709,7 +2715,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2725,7 +2731,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2741,7 +2747,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2757,7 +2763,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2773,7 +2779,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2789,7 +2795,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2805,7 +2811,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2821,7 +2827,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2837,7 +2843,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2853,7 +2859,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2869,7 +2875,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2885,7 +2891,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2901,7 +2907,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2917,7 +2923,7 @@
       <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2933,7 +2939,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="41" t="s">
         <v>291</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -2951,7 +2957,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2967,7 +2973,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2983,7 +2989,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2999,7 +3005,7 @@
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3015,7 +3021,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3031,7 +3037,7 @@
       <c r="C41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3047,7 +3053,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3063,7 +3069,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="37"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3079,7 +3085,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="37"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3095,7 +3101,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="37"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3111,7 +3117,7 @@
       <c r="C46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="37"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3127,7 +3133,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="37"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3144,7 +3150,7 @@
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="37"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3161,7 +3167,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3178,7 +3184,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="37"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3195,7 +3201,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="37"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3211,7 +3217,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="37"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3227,7 +3233,7 @@
       <c r="C53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="37"/>
+      <c r="D53" s="42"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3243,7 +3249,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="37"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3259,7 +3265,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3275,7 +3281,7 @@
       <c r="C56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="42"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3291,7 +3297,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="43" t="s">
         <v>292</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3309,7 +3315,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3325,7 +3331,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="39"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3341,7 +3347,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="39"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3357,7 +3363,7 @@
       <c r="C61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3373,7 +3379,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="39"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3389,7 +3395,7 @@
       <c r="C63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3405,7 +3411,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3421,7 +3427,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3437,7 +3443,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3453,7 +3459,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3469,7 +3475,7 @@
       <c r="C68" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3485,7 +3491,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3501,7 +3507,7 @@
       <c r="C70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3517,7 +3523,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3533,7 +3539,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3549,7 +3555,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3565,7 +3571,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3581,7 +3587,7 @@
       <c r="C75" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="39"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3597,7 +3603,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="44"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3613,7 +3619,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="39"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3629,7 +3635,7 @@
       <c r="C78" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3645,7 +3651,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="35" t="s">
         <v>297</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3663,7 +3669,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="30"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3679,7 +3685,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="30"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3695,7 +3701,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="30"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3711,7 +3717,7 @@
       <c r="C83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="30"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3727,7 +3733,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="30"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3743,7 +3749,7 @@
       <c r="C85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="30"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3759,7 +3765,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="30"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3775,7 +3781,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="30"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3791,7 +3797,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="30"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3807,7 +3813,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="30"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3823,7 +3829,7 @@
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3839,7 +3845,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="36" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -3857,7 +3863,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="32"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3873,7 +3879,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="32"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3889,7 +3895,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="32"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3905,7 +3911,7 @@
       <c r="C95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="32"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3921,7 +3927,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="32"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3937,7 +3943,7 @@
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="32"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3953,7 +3959,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="32"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3969,7 +3975,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="32"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3985,7 +3991,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="32"/>
+      <c r="D100" s="37"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4001,7 +4007,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="32"/>
+      <c r="D101" s="37"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4017,7 +4023,7 @@
       <c r="C102" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="32"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4033,7 +4039,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4049,7 +4055,7 @@
       <c r="C104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4065,7 +4071,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="32"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4081,7 +4087,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="32"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4097,7 +4103,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="32"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4113,7 +4119,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="32"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4129,7 +4135,7 @@
       <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="33"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4145,7 +4151,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="39" t="s">
         <v>299</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -4163,7 +4169,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="34"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4179,7 +4185,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="34"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4195,7 +4201,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4211,7 +4217,7 @@
       <c r="C114" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="34"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4227,7 +4233,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="34"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4243,7 +4249,7 @@
       <c r="C116" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="34"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4259,7 +4265,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="34"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4275,7 +4281,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="34"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4291,7 +4297,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="34"/>
+      <c r="D119" s="39"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4307,7 +4313,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="39"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4323,7 +4329,7 @@
       <c r="C121" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="34"/>
+      <c r="D121" s="39"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4339,7 +4345,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="34"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4355,7 +4361,7 @@
       <c r="C123" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="34"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4371,7 +4377,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="34"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4387,7 +4393,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="34"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4403,7 +4409,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="34"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4419,7 +4425,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4435,7 +4441,7 @@
       <c r="C128" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="35"/>
+      <c r="D128" s="40"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4451,8 +4457,8 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="52" t="s">
-        <v>306</v>
+      <c r="D129" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4469,7 +4475,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="53"/>
+      <c r="D130" s="32"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4485,7 +4491,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="53"/>
+      <c r="D131" s="32"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4501,7 +4507,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="32"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4517,7 +4523,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="53"/>
+      <c r="D133" s="32"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4533,7 +4539,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="53"/>
+      <c r="D134" s="32"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4549,7 +4555,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="32"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4565,7 +4571,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="53"/>
+      <c r="D136" s="32"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4581,7 +4587,7 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="54"/>
+      <c r="D137" s="33"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4591,32 +4597,32 @@
       <c r="A138" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="7">
-        <v>8</v>
+      <c r="C138" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>33</v>
+      <c r="C139" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C140" s="7">
-        <v>2</v>
+      <c r="C140" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>28</v>
+      <c r="C141" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,7 +4630,7 @@
         <v>155</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,7 +4638,7 @@
         <v>156</v>
       </c>
       <c r="C143" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4640,7 +4646,7 @@
         <v>157</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,15 +4654,15 @@
         <v>158</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>33</v>
+      <c r="C146" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,7 +4670,7 @@
         <v>160</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,7 +4678,7 @@
         <v>161</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5391,25 +5397,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="16">
@@ -5555,7 +5561,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -5629,31 +5635,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="40" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="16">
@@ -5799,7 +5805,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -5879,41 +5885,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="41" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="40" t="s">
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="16">
@@ -6059,7 +6065,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -6153,41 +6159,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="41" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="40" t="s">
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="45" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="16">
@@ -6333,7 +6339,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6428,11 +6434,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N4:Q4"/>
@@ -6440,11 +6446,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6476,27 +6482,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="49" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="16">
@@ -6544,7 +6550,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -6590,34 +6596,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="41" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="16">
@@ -6679,7 +6685,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -6739,34 +6745,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="41" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="46"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="16">
@@ -6828,7 +6834,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
@@ -6895,17 +6901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="P7:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6913,10 +6919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6925,16 +6931,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>303</v>
+      <c r="A2" s="45" t="s">
+        <v>302</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -6963,7 +6969,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -6990,28 +6996,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>304</v>
-      </c>
-      <c r="H4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>305</v>
       </c>
       <c r="B6" s="16">
         <v>128</v>
@@ -7048,7 +7054,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -7081,14 +7087,81 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>304</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="16">
+        <v>128</v>
+      </c>
+      <c r="C12" s="16">
+        <v>129</v>
+      </c>
+      <c r="D12" s="16">
+        <v>130</v>
+      </c>
+      <c r="E12" s="16">
+        <v>131</v>
+      </c>
+      <c r="F12" s="16">
+        <v>132</v>
+      </c>
+      <c r="G12" s="16">
+        <v>133</v>
+      </c>
+      <c r="H12" s="16">
+        <v>134</v>
+      </c>
+      <c r="I12" s="16">
+        <v>135</v>
+      </c>
+      <c r="J12" s="16">
+        <v>136</v>
+      </c>
+      <c r="K12" s="16">
+        <v>137</v>
+      </c>
+      <c r="L12" s="16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -1993,15 +1993,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2021,6 +2012,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2357,8 +2357,8 @@
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,25 +5397,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="16">
@@ -5561,7 +5561,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -5635,31 +5635,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="53" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="16">
@@ -5805,7 +5805,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -5885,41 +5885,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="49" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="48" t="s">
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="16">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -6159,41 +6159,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="49" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="48" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="16">
@@ -6339,7 +6339,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6434,11 +6434,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N4:Q4"/>
@@ -6446,11 +6446,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6482,27 +6482,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="16">
@@ -6550,7 +6550,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -6596,34 +6596,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="53" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="16">
@@ -6685,7 +6685,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -6745,34 +6745,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="49" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="54"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="16">
@@ -6834,7 +6834,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
@@ -6901,17 +6901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6931,15 +6931,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>302</v>
       </c>
       <c r="B2" s="16">
@@ -6969,7 +6969,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="53" t="s">
         <v>304</v>
       </c>
       <c r="B6" s="16">
@@ -7054,7 +7054,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="53" t="s">
         <v>306</v>
       </c>
       <c r="B12" s="16">
@@ -7143,7 +7143,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>

--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mauro\Cloud\GitHub\Compilador\Segunda_Entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compilador\Compilador\Segunda_entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5BAD78-77CC-4D3D-81EC-3A47D05E249C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST COMPLETO" sheetId="2" r:id="rId1"/>
@@ -17,17 +18,24 @@
     <sheet name="TEST-WHILE" sheetId="4" r:id="rId3"/>
     <sheet name="TEST-ASIGMUL-BETWEEN" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0">
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U8" authorId="0" shapeId="0">
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -567,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0">
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -591,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0" shapeId="0">
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -639,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="0" shapeId="0">
+    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -668,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="314">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1593,12 +1601,30 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>CELDA 0</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t>IF BETWEEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1651,7 +1677,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1733,6 +1759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,9 +1989,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,6 +2022,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,13 +2052,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2066,7 +2098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2141,6 +2173,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2176,6 +2225,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2351,17 +2417,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C148"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -2396,7 +2462,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2408,7 +2474,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2421,7 +2487,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2437,7 +2503,7 @@
       <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2453,7 +2519,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2471,7 +2537,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2487,7 +2553,7 @@
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2503,7 +2569,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2521,7 +2587,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2537,7 +2603,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2553,7 +2619,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2569,7 +2635,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2585,7 +2651,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2601,7 +2667,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2617,7 +2683,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2633,7 +2699,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2649,7 +2715,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2665,7 +2731,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2681,7 +2747,7 @@
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2697,7 +2763,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2715,7 +2781,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2731,7 +2797,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2747,7 +2813,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2761,12 +2827,12 @@
         <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="D24" s="36"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,7 +2845,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2795,7 +2861,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2811,7 +2877,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2827,7 +2893,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2843,7 +2909,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2859,7 +2925,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2875,7 +2941,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2891,7 +2957,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="37"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2907,7 +2973,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2923,7 +2989,7 @@
       <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2939,7 +3005,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>291</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -2957,7 +3023,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2973,7 +3039,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2989,7 +3055,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3003,12 +3069,12 @@
         <v>67</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="42"/>
+        <v>308</v>
+      </c>
+      <c r="D39" s="41"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,7 +3087,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="42"/>
+      <c r="D40" s="41"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3037,7 +3103,7 @@
       <c r="C41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3053,7 +3119,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="42"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3069,7 +3135,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3085,7 +3151,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="42"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3101,7 +3167,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="42"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3115,12 +3181,12 @@
         <v>67</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="42"/>
+        <v>308</v>
+      </c>
+      <c r="D46" s="41"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,7 +3199,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="42"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3150,7 +3216,7 @@
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="42"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3167,7 +3233,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="42"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3184,7 +3250,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="42"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3201,7 +3267,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="42"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3217,7 +3283,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="42"/>
+      <c r="D52" s="41"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3233,7 +3299,7 @@
       <c r="C53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="42"/>
+      <c r="D53" s="41"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3249,7 +3315,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="42"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3265,7 +3331,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="42"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3281,7 +3347,7 @@
       <c r="C56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="42"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3297,7 +3363,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="42" t="s">
         <v>292</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3315,7 +3381,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="44"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3331,7 +3397,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="44"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3347,7 +3413,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="44"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3363,7 +3429,7 @@
       <c r="C61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="44"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3379,7 +3445,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="44"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3395,7 +3461,7 @@
       <c r="C63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="44"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3411,7 +3477,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="44"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3427,7 +3493,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="44"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3443,7 +3509,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="44"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3459,7 +3525,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="44"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3473,12 +3539,12 @@
         <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="44"/>
+        <v>308</v>
+      </c>
+      <c r="D68" s="43"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,7 +3557,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="44"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3507,7 +3573,7 @@
       <c r="C70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="44"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3523,7 +3589,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="44"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3539,7 +3605,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="44"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3555,7 +3621,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="44"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3571,7 +3637,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="44"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3587,7 +3653,7 @@
       <c r="C75" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="44"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3603,7 +3669,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="44"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3619,7 +3685,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="44"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3635,7 +3701,7 @@
       <c r="C78" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="44"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3651,7 +3717,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="34" t="s">
         <v>297</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3669,7 +3735,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="35"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3685,7 +3751,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="35"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3701,7 +3767,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="35"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3717,7 +3783,7 @@
       <c r="C83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="35"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3733,7 +3799,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="35"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3749,7 +3815,7 @@
       <c r="C85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="35"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3765,7 +3831,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="35"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3781,7 +3847,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="35"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3797,7 +3863,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="35"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3813,7 +3879,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="35"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3829,7 +3895,7 @@
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="35"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3845,7 +3911,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D91" s="35" t="s">
         <v>298</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -3863,7 +3929,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3879,7 +3945,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="37"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3895,7 +3961,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="37"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3911,7 +3977,7 @@
       <c r="C95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="37"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3927,7 +3993,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="37"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3943,7 +4009,7 @@
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="37"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3959,7 +4025,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="37"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3975,7 +4041,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3991,7 +4057,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="37"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4007,7 +4073,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="37"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4023,7 +4089,7 @@
       <c r="C102" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="37"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4039,7 +4105,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="37"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4055,7 +4121,7 @@
       <c r="C104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="37"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4071,7 +4137,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="37"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4087,7 +4153,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4103,7 +4169,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="37"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4119,7 +4185,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="37"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4135,7 +4201,7 @@
       <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="38"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4151,7 +4217,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D110" s="38" t="s">
         <v>299</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -4169,7 +4235,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="39"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4185,7 +4251,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="39"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4201,7 +4267,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="39"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4217,7 +4283,7 @@
       <c r="C114" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="39"/>
+      <c r="D114" s="38"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4233,7 +4299,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="39"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4249,7 +4315,7 @@
       <c r="C116" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="39"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4265,7 +4331,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="39"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4281,7 +4347,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="39"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4297,7 +4363,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4313,7 +4379,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="39"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4329,7 +4395,7 @@
       <c r="C121" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="39"/>
+      <c r="D121" s="38"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4345,7 +4411,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="39"/>
+      <c r="D122" s="38"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4361,7 +4427,7 @@
       <c r="C123" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="38"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4377,7 +4443,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="39"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4393,7 +4459,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="39"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4409,7 +4475,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="39"/>
+      <c r="D126" s="38"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4425,7 +4491,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="39"/>
+      <c r="D127" s="38"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4441,7 +4507,7 @@
       <c r="C128" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="40"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4493,7 +4559,7 @@
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4587,7 +4653,7 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="33"/>
+      <c r="D137" s="32"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4597,24 +4663,48 @@
       <c r="A138" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="B138" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="C138" s="7" t="s">
         <v>307</v>
+      </c>
+      <c r="D138" s="32"/>
+      <c r="E138" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="B139" s="8">
+        <v>8</v>
+      </c>
       <c r="C139" s="7">
         <v>8</v>
+      </c>
+      <c r="D139" s="32"/>
+      <c r="E139" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="B140" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C140" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="D140" s="32"/>
+      <c r="E140" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,6 +4714,10 @@
       <c r="C141" s="7">
         <v>8</v>
       </c>
+      <c r="E141" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
@@ -4632,420 +4726,868 @@
       <c r="C142" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E142" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C143" s="7">
-        <v>2</v>
+      <c r="B143" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E143" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="9">
+        <v>2</v>
+      </c>
+      <c r="C144" s="7">
+        <v>2</v>
+      </c>
+      <c r="D144" s="54"/>
+      <c r="E144" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="B145" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C145" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D145" s="54"/>
+      <c r="E145" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" s="54"/>
+      <c r="E146" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="B147" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C147" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D147" s="54"/>
+      <c r="E147" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="B148" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C148" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D148" s="54"/>
+      <c r="E148" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="B149" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C149" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D149" s="54"/>
+      <c r="E149" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C150" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="54"/>
+      <c r="E150" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="B151" s="9">
+        <v>4</v>
+      </c>
       <c r="C151" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D151" s="54"/>
+      <c r="E151" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="B152" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C152" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D152" s="54"/>
+      <c r="E152" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>166</v>
       </c>
+      <c r="B153" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="C153" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="D153" s="54"/>
+      <c r="E153" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C154" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="54"/>
+      <c r="E154" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="B155" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="C155" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="D155" s="54"/>
+      <c r="E155" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="B156" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C156" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D156" s="54"/>
+      <c r="E156" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="9">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="54"/>
+      <c r="E157" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C158" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="54"/>
+      <c r="E158" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="B159" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="C159" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="D159" s="54"/>
+      <c r="E159" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="9">
+        <v>0</v>
+      </c>
+      <c r="C160" s="7">
+        <v>0</v>
+      </c>
+      <c r="D160" s="54"/>
+      <c r="E160" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C161" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="E161" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="9">
+        <v>2</v>
+      </c>
+      <c r="C162" s="7">
+        <v>2</v>
+      </c>
+      <c r="D162" s="32"/>
+      <c r="E162" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="B163" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C163" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D163" s="32"/>
+      <c r="E163" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C164" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D164" s="32"/>
+      <c r="E164" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="B165" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C165" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="D165" s="32"/>
+      <c r="E165" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="32"/>
+      <c r="E166" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="9">
+        <v>4</v>
+      </c>
+      <c r="C167" s="7">
+        <v>4</v>
+      </c>
+      <c r="D167" s="32"/>
+      <c r="E167" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="B168" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C168" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D168" s="32"/>
+      <c r="E168" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C169" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D169" s="32"/>
+      <c r="E169" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="B170" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C170" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="D170" s="32"/>
+      <c r="E170" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="9">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
+      <c r="D171" s="32"/>
+      <c r="E171" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="32"/>
+      <c r="E172" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" s="32"/>
+      <c r="E173" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="9">
+        <v>0</v>
+      </c>
+      <c r="C174" s="7">
+        <v>0</v>
+      </c>
+      <c r="D174" s="32"/>
+      <c r="E174" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="9">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
+      <c r="D175" s="32"/>
+      <c r="E175" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="32"/>
+      <c r="E176" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" s="32"/>
+      <c r="E177" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D178" s="32"/>
+      <c r="E178" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179" s="32"/>
+      <c r="E179" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D180" s="32"/>
+      <c r="E180" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="32"/>
+      <c r="E181" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="9">
+        <v>4</v>
+      </c>
+      <c r="C182" s="7">
+        <v>4</v>
+      </c>
+      <c r="D182" s="32"/>
+      <c r="E182" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="32"/>
+      <c r="E183" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" s="32"/>
+      <c r="E184" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D185" s="32"/>
+      <c r="E185" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C186" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C187" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C188" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C189" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C190" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C191" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C192" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C193" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C194" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C195" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C196" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C197" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C198" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C199" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C200" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C201" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C202" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C203" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>221</v>
       </c>
@@ -5346,8 +5888,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D129:D137"/>
+  <mergeCells count="12">
+    <mergeCell ref="D143:D160"/>
+    <mergeCell ref="D161:D185"/>
+    <mergeCell ref="D129:D140"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D79:D90"/>
@@ -5358,7 +5902,7 @@
     <mergeCell ref="D35:D56"/>
     <mergeCell ref="D57:D78"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E137">
+  <conditionalFormatting sqref="E2:E185">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
@@ -5372,14 +5916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
     <col min="2" max="5" width="4.7109375" style="14" customWidth="1"/>
@@ -5397,25 +5941,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="54" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="44" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="16">
@@ -5561,7 +6105,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -5635,31 +6179,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="54" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="45" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="16">
@@ -5805,7 +6349,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -5885,41 +6429,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="46" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="45" t="s">
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="44" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="16">
@@ -6065,7 +6609,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -6159,41 +6703,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="46" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="45" t="s">
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="16">
@@ -6339,7 +6883,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6434,11 +6978,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N4:Q4"/>
@@ -6446,11 +6990,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6459,14 +7003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
     <col min="2" max="5" width="4.7109375" style="14" customWidth="1"/>
@@ -6482,27 +7026,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="54" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="16">
@@ -6550,7 +7094,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -6596,34 +7140,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="51"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="53"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="44" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="16">
@@ -6685,7 +7229,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -6745,34 +7289,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="46" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="44" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="16">
@@ -6834,7 +7378,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
@@ -6901,45 +7445,45 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="P7:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="44" t="s">
         <v>302</v>
       </c>
       <c r="B2" s="16">
@@ -6969,7 +7513,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -7016,7 +7560,7 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="44" t="s">
         <v>304</v>
       </c>
       <c r="B6" s="16">
@@ -7054,7 +7598,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -7105,7 +7649,7 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="44" t="s">
         <v>306</v>
       </c>
       <c r="B12" s="16">
@@ -7143,7 +7687,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>

--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compilador\Compilador\Segunda_entrega\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5BAD78-77CC-4D3D-81EC-3A47D05E249C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="TEST COMPLETO" sheetId="2" r:id="rId1"/>
     <sheet name="TEST-IF" sheetId="3" r:id="rId2"/>
     <sheet name="TEST-WHILE" sheetId="4" r:id="rId3"/>
     <sheet name="TEST-ASIGMUL-BETWEEN" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="M5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="N5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="Q5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="M8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="T8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="U8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="I11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="M11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="U11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="313">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1555,9 +1550,6 @@
   </si>
   <si>
     <t>IF CON OR Y ELSE</t>
-  </si>
-  <si>
-    <t>RESULTADO OBTENIDO</t>
   </si>
   <si>
     <t>while(a&lt;7){ i:= 5+b } endw</t>
@@ -1600,12 +1592,6 @@
     <t>BETWEEN (a,[2;a*(b+4)])</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>CELDA 0</t>
-  </si>
-  <si>
     <t>BLT</t>
   </si>
   <si>
@@ -1618,13 +1604,19 @@
     <t>BETWEEN</t>
   </si>
   <si>
-    <t>IF BETWEEN</t>
+    <t xml:space="preserve">CMP </t>
+  </si>
+  <si>
+    <t>i:=BETWEEN(a,[2;a*(b+4)])</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1677,7 +1669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1765,6 +1757,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1983,8 +1981,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2022,16 +2038,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,16 +2086,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2098,7 +2138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2140,7 +2180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2173,26 +2213,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2225,23 +2248,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2417,17 +2423,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D138" sqref="C138:D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="11.42578125" style="8"/>
@@ -2442,9 +2448,7 @@
       <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>293</v>
-      </c>
+      <c r="C1" s="12"/>
       <c r="D1" s="11" t="s">
         <v>49</v>
       </c>
@@ -2462,7 +2466,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="39" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2474,7 +2478,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2491,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2497,13 +2501,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2519,7 +2523,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="39" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2537,7 +2541,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2547,13 +2551,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2569,7 +2573,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="46" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2587,7 +2591,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2603,7 +2607,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2619,7 +2623,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2635,7 +2639,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2651,7 +2655,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2667,7 +2671,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2683,7 +2687,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2699,7 +2703,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2715,7 +2719,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2731,7 +2735,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2741,13 +2745,13 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2763,7 +2767,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="41" t="s">
         <v>282</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2781,7 +2785,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2797,7 +2801,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2813,7 +2817,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2827,12 +2831,12 @@
         <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D24" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="42"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,7 +2849,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2861,7 +2865,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2877,7 +2881,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2893,7 +2897,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2909,7 +2913,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2925,7 +2929,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2941,7 +2945,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2957,7 +2961,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2973,7 +2977,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="36"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2983,13 +2987,13 @@
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3005,7 +3009,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="46" t="s">
         <v>291</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3023,7 +3027,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3039,7 +3043,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3055,7 +3059,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3069,12 +3073,12 @@
         <v>67</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="41"/>
+        <v>67</v>
+      </c>
+      <c r="D39" s="47"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3087,7 +3091,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3103,7 +3107,7 @@
       <c r="C41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3119,7 +3123,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3135,7 +3139,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3151,7 +3155,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3167,7 +3171,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3181,12 +3185,12 @@
         <v>67</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="41"/>
+        <v>67</v>
+      </c>
+      <c r="D46" s="47"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,7 +3203,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3216,7 +3220,7 @@
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3233,7 +3237,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3250,7 +3254,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3267,7 +3271,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="41"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3283,7 +3287,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="41"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3299,7 +3303,7 @@
       <c r="C53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3315,7 +3319,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3331,7 +3335,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3341,13 +3345,13 @@
       <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3363,7 +3367,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="48" t="s">
         <v>292</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3381,7 +3385,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="43"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3397,7 +3401,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3413,7 +3417,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3429,7 +3433,7 @@
       <c r="C61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3445,7 +3449,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3461,7 +3465,7 @@
       <c r="C63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3477,7 +3481,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="43"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3493,7 +3497,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3509,7 +3513,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="43"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3525,7 +3529,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3539,12 +3543,12 @@
         <v>89</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D68" s="43"/>
+        <v>89</v>
+      </c>
+      <c r="D68" s="49"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,7 +3561,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="43"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3573,7 +3577,7 @@
       <c r="C70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3589,7 +3593,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3605,7 +3609,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3621,7 +3625,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3637,7 +3641,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3653,7 +3657,7 @@
       <c r="C75" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="43"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3669,7 +3673,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="43"/>
+      <c r="D76" s="49"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3685,7 +3689,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3695,13 +3699,13 @@
       <c r="A78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="49"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3717,8 +3721,8 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="34" t="s">
-        <v>297</v>
+      <c r="D79" s="40" t="s">
+        <v>296</v>
       </c>
       <c r="E79" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3735,7 +3739,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="34"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3751,7 +3755,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="34"/>
+      <c r="D81" s="40"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3767,7 +3771,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="40"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3783,7 +3787,7 @@
       <c r="C83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="40"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3799,7 +3803,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="34"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3815,7 +3819,7 @@
       <c r="C85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="34"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3831,7 +3835,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="34"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3847,7 +3851,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="34"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3863,7 +3867,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="34"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3879,7 +3883,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="34"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3889,13 +3893,13 @@
       <c r="A90" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="34"/>
+      <c r="D90" s="40"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3911,8 +3915,8 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="35" t="s">
-        <v>298</v>
+      <c r="D91" s="41" t="s">
+        <v>297</v>
       </c>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3929,7 +3933,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="36"/>
+      <c r="D92" s="42"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3945,7 +3949,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="36"/>
+      <c r="D93" s="42"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3961,7 +3965,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="36"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3977,7 +3981,7 @@
       <c r="C95" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="36"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3993,7 +3997,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="36"/>
+      <c r="D96" s="42"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4009,7 +4013,7 @@
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="36"/>
+      <c r="D97" s="42"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4025,7 +4029,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="36"/>
+      <c r="D98" s="42"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4041,7 +4045,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="36"/>
+      <c r="D99" s="42"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4057,7 +4061,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="36"/>
+      <c r="D100" s="42"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4073,7 +4077,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="36"/>
+      <c r="D101" s="42"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4089,7 +4093,7 @@
       <c r="C102" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="36"/>
+      <c r="D102" s="42"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4105,7 +4109,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="36"/>
+      <c r="D103" s="42"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4121,7 +4125,7 @@
       <c r="C104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="36"/>
+      <c r="D104" s="42"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4137,7 +4141,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="36"/>
+      <c r="D105" s="42"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4153,7 +4157,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="36"/>
+      <c r="D106" s="42"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4169,7 +4173,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="36"/>
+      <c r="D107" s="42"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4185,7 +4189,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="36"/>
+      <c r="D108" s="42"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4195,13 +4199,13 @@
       <c r="A109" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="37"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4217,8 +4221,8 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="38" t="s">
-        <v>299</v>
+      <c r="D110" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4235,7 +4239,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="38"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4251,7 +4255,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="38"/>
+      <c r="D112" s="44"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4267,7 +4271,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="38"/>
+      <c r="D113" s="44"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4283,7 +4287,7 @@
       <c r="C114" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="38"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4299,7 +4303,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="38"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4315,7 +4319,7 @@
       <c r="C116" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="38"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4331,7 +4335,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="38"/>
+      <c r="D117" s="44"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4347,7 +4351,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="38"/>
+      <c r="D118" s="44"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4363,7 +4367,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="38"/>
+      <c r="D119" s="44"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4379,7 +4383,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="38"/>
+      <c r="D120" s="44"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4395,7 +4399,7 @@
       <c r="C121" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="38"/>
+      <c r="D121" s="44"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4411,7 +4415,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="38"/>
+      <c r="D122" s="44"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4427,7 +4431,7 @@
       <c r="C123" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="38"/>
+      <c r="D123" s="44"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4443,7 +4447,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="38"/>
+      <c r="D124" s="44"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4459,7 +4463,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="38"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4475,7 +4479,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="38"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4491,7 +4495,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="38"/>
+      <c r="D127" s="44"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4501,13 +4505,13 @@
       <c r="A128" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="39"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4523,8 +4527,8 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="31" t="s">
-        <v>305</v>
+      <c r="D129" s="50" t="s">
+        <v>304</v>
       </c>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4541,7 +4545,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="32"/>
+      <c r="D130" s="51"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4557,9 +4561,9 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="32"/>
+      <c r="D131" s="51"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4573,7 +4577,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="32"/>
+      <c r="D132" s="51"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4589,7 +4593,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="32"/>
+      <c r="D133" s="51"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4605,7 +4609,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="32"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4621,7 +4625,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="32"/>
+      <c r="D135" s="51"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4637,7 +4641,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="32"/>
+      <c r="D136" s="51"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4647,13 +4651,13 @@
       <c r="A137" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="32"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4663,15 +4667,17 @@
       <c r="A138" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>307</v>
+      <c r="B138" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D138" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="D138" s="53" t="s">
+        <v>309</v>
+      </c>
       <c r="E138" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E138:E185" si="3">IF(AND(B138=C138,B138&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4679,15 +4685,15 @@
       <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B139" s="8">
-        <v>8</v>
-      </c>
-      <c r="C139" s="7">
-        <v>8</v>
-      </c>
-      <c r="D139" s="32"/>
+      <c r="B139" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="54"/>
       <c r="E139" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4695,15 +4701,15 @@
       <c r="A140" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="32"/>
+      <c r="B140" s="9">
+        <v>2</v>
+      </c>
+      <c r="C140" s="7">
+        <v>2</v>
+      </c>
+      <c r="D140" s="54"/>
       <c r="E140" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4711,24 +4717,32 @@
       <c r="A141" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C141" s="7">
-        <v>8</v>
-      </c>
+      <c r="B141" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="54"/>
       <c r="E141" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="B142" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="C142" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D142" s="54"/>
       <c r="E142" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4736,16 +4750,14 @@
         <v>156</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="54" t="s">
-        <v>312</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D143" s="54"/>
       <c r="E143" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4753,15 +4765,15 @@
       <c r="A144" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B144" s="9">
-        <v>2</v>
-      </c>
-      <c r="C144" s="7">
-        <v>2</v>
+      <c r="B144" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D144" s="54"/>
       <c r="E144" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4770,14 +4782,14 @@
         <v>158</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="D145" s="54"/>
       <c r="E145" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4786,14 +4798,14 @@
         <v>159</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="D146" s="54"/>
       <c r="E146" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4802,14 +4814,14 @@
         <v>160</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D147" s="54"/>
       <c r="E147" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4818,14 +4830,14 @@
         <v>161</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D148" s="54"/>
       <c r="E148" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4833,15 +4845,15 @@
       <c r="A149" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>28</v>
+      <c r="B149" s="9">
+        <v>4</v>
+      </c>
+      <c r="C149" s="7">
+        <v>4</v>
       </c>
       <c r="D149" s="54"/>
       <c r="E149" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4850,14 +4862,14 @@
         <v>163</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D150" s="54"/>
       <c r="E150" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4865,15 +4877,15 @@
       <c r="A151" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B151" s="9">
-        <v>4</v>
-      </c>
-      <c r="C151" s="7">
-        <v>4</v>
+      <c r="B151" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="D151" s="54"/>
       <c r="E151" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4882,14 +4894,14 @@
         <v>165</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D152" s="54"/>
       <c r="E152" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4898,14 +4910,14 @@
         <v>166</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D153" s="54"/>
       <c r="E153" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4914,14 +4926,14 @@
         <v>167</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D154" s="54"/>
       <c r="E154" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4930,14 +4942,14 @@
         <v>168</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="D155" s="54"/>
       <c r="E155" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4946,14 +4958,14 @@
         <v>169</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D156" s="54"/>
       <c r="E156" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4969,7 +4981,7 @@
       </c>
       <c r="D157" s="54"/>
       <c r="E157" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -4985,7 +4997,7 @@
       </c>
       <c r="D158" s="54"/>
       <c r="E158" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5001,7 +5013,7 @@
       </c>
       <c r="D159" s="54"/>
       <c r="E159" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5009,15 +5021,15 @@
       <c r="A160" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="35">
         <v>0</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="36">
         <v>0</v>
       </c>
-      <c r="D160" s="54"/>
+      <c r="D160" s="55"/>
       <c r="E160" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5026,49 +5038,49 @@
         <v>174</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="32" t="s">
-        <v>313</v>
+      <c r="D161" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="E161" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B162" s="9">
-        <v>2</v>
+      <c r="B162" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="32"/>
+      <c r="D162" s="38"/>
       <c r="E162" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>29</v>
+      <c r="B163" s="9">
+        <v>4</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D163" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="D163" s="38"/>
       <c r="E163" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5076,15 +5088,15 @@
         <v>177</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="D164" s="38"/>
       <c r="E164" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5092,15 +5104,15 @@
         <v>178</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D165" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="D165" s="38"/>
       <c r="E165" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,15 +5120,15 @@
         <v>179</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" s="32"/>
+        <v>187</v>
+      </c>
+      <c r="C166" s="7">
+        <v>2</v>
+      </c>
+      <c r="D166" s="38"/>
       <c r="E166" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5124,15 +5136,15 @@
         <v>180</v>
       </c>
       <c r="B167" s="9">
-        <v>4</v>
-      </c>
-      <c r="C167" s="7">
-        <v>4</v>
-      </c>
-      <c r="D167" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" s="38"/>
       <c r="E167" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5140,15 +5152,15 @@
         <v>181</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D168" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="D168" s="38"/>
       <c r="E168" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5156,31 +5168,31 @@
         <v>182</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D169" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="D169" s="38"/>
       <c r="E169" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D170" s="32"/>
+      <c r="B170" s="9">
+        <v>0</v>
+      </c>
+      <c r="C170" s="7">
+        <v>10</v>
+      </c>
+      <c r="D170" s="38"/>
       <c r="E170" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5190,13 +5202,13 @@
       <c r="B171" s="9">
         <v>1</v>
       </c>
-      <c r="C171" s="7">
-        <v>1</v>
-      </c>
-      <c r="D171" s="32"/>
+      <c r="C171" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="38"/>
       <c r="E171" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5204,15 +5216,15 @@
         <v>185</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D172" s="32"/>
+        <v>307</v>
+      </c>
+      <c r="D172" s="38"/>
       <c r="E172" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,47 +5232,47 @@
         <v>186</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D173" s="32"/>
+        <v>308</v>
+      </c>
+      <c r="D173" s="38"/>
       <c r="E173" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B174" s="9">
-        <v>0</v>
-      </c>
-      <c r="C174" s="7">
-        <v>0</v>
-      </c>
-      <c r="D174" s="32"/>
+      <c r="B174" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="38"/>
       <c r="E174" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B175" s="9">
-        <v>1</v>
-      </c>
-      <c r="C175" s="7">
-        <v>1</v>
-      </c>
-      <c r="D175" s="32"/>
+      <c r="B175" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D175" s="38"/>
       <c r="E175" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5268,15 +5280,15 @@
         <v>189</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="32"/>
+      <c r="D176" s="38"/>
       <c r="E176" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5284,31 +5296,31 @@
         <v>190</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="32"/>
+      <c r="D177" s="38"/>
       <c r="E177" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D178" s="32"/>
+      <c r="B178" s="9">
+        <v>4</v>
+      </c>
+      <c r="C178" s="7">
+        <v>163</v>
+      </c>
+      <c r="D178" s="38"/>
       <c r="E178" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5316,15 +5328,12 @@
         <v>192</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D179" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="D179" s="38"/>
       <c r="E179" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5332,15 +5341,12 @@
         <v>193</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D180" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="D180" s="38"/>
       <c r="E180" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,31 +5354,25 @@
         <v>194</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D181" s="32"/>
+        <v>199</v>
+      </c>
+      <c r="D181" s="38"/>
       <c r="E181" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B182" s="9">
-        <v>4</v>
-      </c>
-      <c r="C182" s="7">
-        <v>4</v>
-      </c>
-      <c r="D182" s="32"/>
+      <c r="B182" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="38"/>
       <c r="E182" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5380,15 +5380,12 @@
         <v>196</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="D183" s="38"/>
       <c r="E183" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5396,15 +5393,12 @@
         <v>197</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D184" s="32"/>
+        <v>199</v>
+      </c>
+      <c r="D184" s="38"/>
       <c r="E184" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,182 +5406,131 @@
         <v>198</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D185" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="D185" s="38"/>
       <c r="E185" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f t="shared" si="3"/>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>28</v>
+      <c r="B186" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="7">
-        <v>2</v>
+      <c r="B187" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C191" s="7">
-        <v>2</v>
-      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C195" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C196" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C200" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C202" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C203" s="7">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>221</v>
       </c>
@@ -5889,9 +5832,7 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D143:D160"/>
     <mergeCell ref="D161:D185"/>
-    <mergeCell ref="D129:D140"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D79:D90"/>
@@ -5901,6 +5842,8 @@
     <mergeCell ref="D20:D34"/>
     <mergeCell ref="D35:D56"/>
     <mergeCell ref="D57:D78"/>
+    <mergeCell ref="D129:D137"/>
+    <mergeCell ref="D138:D160"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E185">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5916,14 +5859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
     <col min="2" max="5" width="4.7109375" style="14" customWidth="1"/>
@@ -5936,30 +5879,32 @@
     <col min="15" max="15" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="4.7109375" style="14" customWidth="1"/>
     <col min="20" max="20" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="49" width="4.7109375" style="14" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="14" customWidth="1"/>
+    <col min="24" max="49" width="4.7109375" style="14" customWidth="1"/>
     <col min="50" max="16384" width="3.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="16">
@@ -6105,7 +6050,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6179,31 +6124,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B5" s="16">
@@ -6349,7 +6294,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -6429,41 +6374,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="48" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51" t="s">
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="47" t="s">
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="59" t="s">
         <v>289</v>
       </c>
       <c r="B8" s="16">
@@ -6609,7 +6554,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -6703,41 +6648,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="48" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51" t="s">
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="47" t="s">
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="59" t="s">
         <v>290</v>
       </c>
       <c r="B11" s="16">
@@ -6883,7 +6828,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6976,25 +6921,215 @@
       <c r="AU12" s="17"/>
       <c r="AV12" s="17"/>
     </row>
+    <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y14" s="33"/>
+    </row>
+    <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="16">
+        <v>137</v>
+      </c>
+      <c r="C15" s="16">
+        <v>138</v>
+      </c>
+      <c r="D15" s="16">
+        <v>139</v>
+      </c>
+      <c r="E15" s="16">
+        <v>140</v>
+      </c>
+      <c r="F15" s="16">
+        <v>141</v>
+      </c>
+      <c r="G15" s="16">
+        <v>142</v>
+      </c>
+      <c r="H15" s="16">
+        <v>143</v>
+      </c>
+      <c r="I15" s="16">
+        <v>144</v>
+      </c>
+      <c r="J15" s="16">
+        <v>145</v>
+      </c>
+      <c r="K15" s="16">
+        <v>146</v>
+      </c>
+      <c r="L15" s="16">
+        <v>147</v>
+      </c>
+      <c r="M15" s="16">
+        <v>148</v>
+      </c>
+      <c r="N15" s="16">
+        <v>149</v>
+      </c>
+      <c r="O15" s="16">
+        <v>150</v>
+      </c>
+      <c r="P15" s="16">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>152</v>
+      </c>
+      <c r="R15" s="16">
+        <v>153</v>
+      </c>
+      <c r="S15" s="16">
+        <v>154</v>
+      </c>
+      <c r="T15" s="16">
+        <v>155</v>
+      </c>
+      <c r="U15" s="16">
+        <v>156</v>
+      </c>
+      <c r="V15" s="16">
+        <v>157</v>
+      </c>
+      <c r="W15" s="16">
+        <v>158</v>
+      </c>
+      <c r="X15" s="16">
+        <v>159</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="17">
+        <v>4</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="U16" s="21">
+        <v>1</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="21">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7003,14 +7138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
     <col min="2" max="5" width="4.7109375" style="14" customWidth="1"/>
@@ -7026,28 +7161,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>294</v>
+      <c r="A2" s="59" t="s">
+        <v>293</v>
       </c>
       <c r="B2" s="16">
         <v>78</v>
@@ -7094,7 +7229,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -7140,35 +7275,35 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="48" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>295</v>
+      <c r="A5" s="59" t="s">
+        <v>294</v>
       </c>
       <c r="B5" s="16">
         <v>90</v>
@@ -7229,7 +7364,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -7289,35 +7424,35 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="48" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>296</v>
+      <c r="A8" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="B8" s="16">
         <v>109</v>
@@ -7378,7 +7513,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
@@ -7440,7 +7575,7 @@
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7462,29 +7597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>302</v>
+      <c r="A2" s="59" t="s">
+        <v>301</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -7513,7 +7648,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -7540,10 +7675,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7560,8 +7695,8 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>304</v>
+      <c r="A6" s="59" t="s">
+        <v>303</v>
       </c>
       <c r="B6" s="16">
         <v>128</v>
@@ -7598,7 +7733,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -7631,7 +7766,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7649,50 +7784,58 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="16">
+        <v>139</v>
+      </c>
+      <c r="C12" s="16">
+        <v>140</v>
+      </c>
+      <c r="D12" s="16">
+        <v>141</v>
+      </c>
+      <c r="E12" s="16">
+        <v>142</v>
+      </c>
+      <c r="F12" s="16">
+        <v>143</v>
+      </c>
+      <c r="G12" s="16">
+        <v>144</v>
+      </c>
+      <c r="H12" s="16">
+        <v>145</v>
+      </c>
+      <c r="I12" s="16">
+        <v>146</v>
+      </c>
+      <c r="J12" s="16">
+        <v>147</v>
+      </c>
+      <c r="K12" s="16">
+        <v>148</v>
+      </c>
+      <c r="L12" s="16">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="16">
-        <v>128</v>
-      </c>
-      <c r="C12" s="16">
-        <v>129</v>
-      </c>
-      <c r="D12" s="16">
-        <v>130</v>
-      </c>
-      <c r="E12" s="16">
-        <v>131</v>
-      </c>
-      <c r="F12" s="16">
-        <v>132</v>
-      </c>
-      <c r="G12" s="16">
-        <v>133</v>
-      </c>
-      <c r="H12" s="16">
-        <v>134</v>
-      </c>
-      <c r="I12" s="16">
-        <v>135</v>
-      </c>
-      <c r="J12" s="16">
-        <v>136</v>
-      </c>
-      <c r="K12" s="16">
-        <v>137</v>
-      </c>
-      <c r="L12" s="16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -7709,4 +7852,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Segunda_entrega/CHECK.xlsx
+++ b/Segunda_entrega/CHECK.xlsx
@@ -12,6 +12,7 @@
     <sheet name="TEST-WHILE" sheetId="4" r:id="rId3"/>
     <sheet name="TEST-ASIGMUL-BETWEEN" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
+    <sheet name="TEST COMPLETO (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -671,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="331">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -820,9 +821,6 @@
     <t>BNE</t>
   </si>
   <si>
-    <t>EJEMPLO IF- IF AND</t>
-  </si>
-  <si>
     <t>CELDA 41</t>
   </si>
   <si>
@@ -1568,9 +1566,6 @@
   </si>
   <si>
     <t>WHILE CON OR</t>
-  </si>
-  <si>
-    <t>1° desapilado -&gt; parte verdadera</t>
   </si>
   <si>
     <t>*</t>
@@ -1611,6 +1606,66 @@
   </si>
   <si>
     <t>REPEAT</t>
+  </si>
+  <si>
+    <t>REPEAT a:=a+2 UNTIL a &lt;= 10</t>
+  </si>
+  <si>
+    <t>RESULTADO OBTENIDO</t>
+  </si>
+  <si>
+    <t>TESTS</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>99.99</t>
+  </si>
+  <si>
+    <t>.99</t>
+  </si>
+  <si>
+    <t>99.</t>
+  </si>
+  <si>
+    <t>-542.43</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ASIGNACION SIMPLE STRING</t>
+  </si>
+  <si>
+    <t>ASIGNACION SIMPLE NEGATIVO</t>
+  </si>
+  <si>
+    <t>ASIGNACION SIMPLE REAL</t>
+  </si>
+  <si>
+    <t>ASIGNACION SIMPLE INT</t>
+  </si>
+  <si>
+    <t>if(BETWEEN(a,[2;a*(b+4)])) then { a:= 15 } endif</t>
+  </si>
+  <si>
+    <t>cuerpo</t>
+  </si>
+  <si>
+    <t>inicuerpo = posactual</t>
+  </si>
+  <si>
+    <t>desapilar() = posactual</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>BETWEEN IF</t>
+  </si>
+  <si>
+    <t>REPEAT UNTIL</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1724,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,6 +1818,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,7 +1958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2002,6 +2063,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,20 +2151,179 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2429,8 +2653,8 @@
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D138" sqref="C138:D160"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217:D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,7 +2674,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>39</v>
@@ -2466,19 +2690,19 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>55</v>
+      <c r="D2" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF(AND(B2=C2,B2&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2491,7 +2715,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2507,7 +2731,7 @@
       <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2523,8 +2747,8 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>55</v>
+      <c r="D5" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2541,7 +2765,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2557,7 +2781,7 @@
       <c r="C7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2573,8 +2797,8 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>281</v>
+      <c r="D8" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2591,7 +2815,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2607,7 +2831,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2623,7 +2847,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2639,7 +2863,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2655,7 +2879,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2671,7 +2895,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2687,7 +2911,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2703,7 +2927,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2719,7 +2943,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2735,7 +2959,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2751,7 +2975,7 @@
       <c r="C19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2767,8 +2991,8 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>282</v>
+      <c r="D20" s="43" t="s">
+        <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +3009,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2801,7 +3025,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2817,7 +3041,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2833,7 +3057,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2849,7 +3073,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2865,7 +3089,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2881,7 +3105,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2897,7 +3121,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2913,7 +3137,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2929,7 +3153,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2945,7 +3169,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2961,7 +3185,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2977,7 +3201,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2993,7 +3217,7 @@
       <c r="C34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3009,8 +3233,8 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>291</v>
+      <c r="D35" s="48" t="s">
+        <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3027,7 +3251,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3043,7 +3267,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3051,7 +3275,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>48</v>
@@ -3059,7 +3283,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3067,15 +3291,15 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="D39" s="49"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3083,7 +3307,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>36</v>
@@ -3091,7 +3315,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3099,15 +3323,15 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="47"/>
+        <v>49</v>
+      </c>
+      <c r="D41" s="49"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3115,7 +3339,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>28</v>
@@ -3123,7 +3347,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3131,7 +3355,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="8">
         <v>4</v>
@@ -3139,7 +3363,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3147,7 +3371,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>29</v>
@@ -3155,7 +3379,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3163,7 +3387,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>48</v>
@@ -3171,7 +3395,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3179,15 +3403,15 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="D46" s="49"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3195,7 +3419,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>36</v>
@@ -3203,7 +3427,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3212,15 +3436,15 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="47"/>
+        <v>63</v>
+      </c>
+      <c r="D48" s="49"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3229,7 +3453,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>32</v>
@@ -3237,7 +3461,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3246,7 +3470,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="8">
         <v>16</v>
@@ -3254,7 +3478,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3263,7 +3487,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>33</v>
@@ -3271,7 +3495,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="47"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3279,7 +3503,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>36</v>
@@ -3287,7 +3511,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="47"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3295,15 +3519,15 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="D53" s="49"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3311,7 +3535,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>32</v>
@@ -3319,7 +3543,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="47"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3327,7 +3551,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="8">
         <v>17</v>
@@ -3335,7 +3559,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="47"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3343,7 +3567,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>33</v>
@@ -3351,7 +3575,7 @@
       <c r="C56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="47"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3359,7 +3583,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>32</v>
@@ -3367,8 +3591,8 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="48" t="s">
-        <v>292</v>
+      <c r="D57" s="50" t="s">
+        <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3377,7 +3601,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="8">
         <v>15</v>
@@ -3385,7 +3609,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="49"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3393,7 +3617,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>29</v>
@@ -3401,7 +3625,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="49"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3409,7 +3633,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>48</v>
@@ -3417,7 +3641,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3425,15 +3649,15 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="D61" s="51"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3441,7 +3665,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>36</v>
@@ -3449,7 +3673,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="49"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3457,15 +3681,15 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="D63" s="51"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3473,7 +3697,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>28</v>
@@ -3481,7 +3705,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3489,7 +3713,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="8">
         <v>4</v>
@@ -3497,7 +3721,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3505,7 +3729,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>29</v>
@@ -3513,7 +3737,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="49"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3521,7 +3745,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>48</v>
@@ -3529,7 +3753,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="49"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3537,15 +3761,15 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="49"/>
+        <v>88</v>
+      </c>
+      <c r="D68" s="51"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3553,7 +3777,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>36</v>
@@ -3561,7 +3785,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="49"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3569,15 +3793,15 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="C70" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="D70" s="51"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3585,7 +3809,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>32</v>
@@ -3593,7 +3817,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="51"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3601,7 +3825,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="8">
         <v>16</v>
@@ -3609,7 +3833,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="51"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3617,7 +3841,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>33</v>
@@ -3625,7 +3849,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3633,7 +3857,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>36</v>
@@ -3641,7 +3865,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="51"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3649,15 +3873,15 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="49"/>
+        <v>91</v>
+      </c>
+      <c r="D75" s="51"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3665,7 +3889,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>32</v>
@@ -3673,7 +3897,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="49"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3681,7 +3905,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="8">
         <v>17</v>
@@ -3689,7 +3913,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="51"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3697,7 +3921,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" s="37" t="s">
         <v>33</v>
@@ -3705,7 +3929,7 @@
       <c r="C78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3713,7 +3937,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>28</v>
@@ -3721,8 +3945,8 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>296</v>
+      <c r="D79" s="42" t="s">
+        <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3731,7 +3955,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="8">
         <v>7</v>
@@ -3739,7 +3963,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="40"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3747,7 +3971,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>29</v>
@@ -3755,7 +3979,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="40"/>
+      <c r="D81" s="42"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3763,7 +3987,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>30</v>
@@ -3771,7 +3995,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="40"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3779,15 +4003,15 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="40"/>
+        <v>103</v>
+      </c>
+      <c r="D83" s="42"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3795,7 +4019,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>36</v>
@@ -3803,7 +4027,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="40"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3811,15 +4035,15 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C85" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="40"/>
+        <v>98</v>
+      </c>
+      <c r="D85" s="42"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3827,7 +4051,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>32</v>
@@ -3835,7 +4059,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="40"/>
+      <c r="D86" s="42"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3843,7 +4067,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="8">
         <v>5</v>
@@ -3851,7 +4075,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="40"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3859,7 +4083,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>34</v>
@@ -3867,7 +4091,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="40"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3875,7 +4099,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>35</v>
@@ -3883,7 +4107,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="40"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3891,7 +4115,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="37" t="s">
         <v>33</v>
@@ -3899,7 +4123,7 @@
       <c r="C90" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="40"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3907,7 +4131,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>28</v>
@@ -3915,8 +4139,8 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="41" t="s">
-        <v>297</v>
+      <c r="D91" s="43" t="s">
+        <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3925,7 +4149,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="8">
         <v>7</v>
@@ -3933,7 +4157,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="42"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3941,7 +4165,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>29</v>
@@ -3949,7 +4173,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="42"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3957,7 +4181,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>30</v>
@@ -3965,7 +4189,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="42"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3973,15 +4197,15 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" s="42"/>
+        <v>122</v>
+      </c>
+      <c r="D95" s="44"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3989,7 +4213,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>36</v>
@@ -3997,7 +4221,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="42"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4005,15 +4229,15 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C97" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="42"/>
+        <v>110</v>
+      </c>
+      <c r="D97" s="44"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4021,7 +4245,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>34</v>
@@ -4029,7 +4253,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="42"/>
+      <c r="D98" s="44"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4037,7 +4261,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" s="8">
         <v>8</v>
@@ -4045,7 +4269,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="42"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4053,7 +4277,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>29</v>
@@ -4061,7 +4285,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="42"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4069,7 +4293,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>37</v>
@@ -4077,7 +4301,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="42"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4085,15 +4309,15 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" s="42"/>
+        <v>122</v>
+      </c>
+      <c r="D102" s="44"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4101,7 +4325,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>36</v>
@@ -4109,7 +4333,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="42"/>
+      <c r="D103" s="44"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4117,15 +4341,15 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" s="42"/>
+        <v>117</v>
+      </c>
+      <c r="D104" s="44"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4133,7 +4357,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>32</v>
@@ -4141,7 +4365,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="42"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4149,7 +4373,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B106" s="8">
         <v>5</v>
@@ -4157,7 +4381,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="42"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4165,7 +4389,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>34</v>
@@ -4173,7 +4397,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="42"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4181,7 +4405,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>35</v>
@@ -4189,7 +4413,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="42"/>
+      <c r="D108" s="44"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4197,7 +4421,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" s="37" t="s">
         <v>33</v>
@@ -4205,7 +4429,7 @@
       <c r="C109" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="43"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4213,7 +4437,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>28</v>
@@ -4221,8 +4445,8 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="44" t="s">
-        <v>298</v>
+      <c r="D110" s="46" t="s">
+        <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4231,7 +4455,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="8">
         <v>7</v>
@@ -4239,7 +4463,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="44"/>
+      <c r="D111" s="46"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4247,7 +4471,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>29</v>
@@ -4255,7 +4479,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="44"/>
+      <c r="D112" s="46"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4263,7 +4487,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>30</v>
@@ -4271,7 +4495,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="44"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4279,15 +4503,15 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="D114" s="46"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4295,7 +4519,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>36</v>
@@ -4303,7 +4527,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="44"/>
+      <c r="D115" s="46"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4311,15 +4535,15 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="D116" s="46"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4327,7 +4551,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>34</v>
@@ -4335,7 +4559,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="44"/>
+      <c r="D117" s="46"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4343,7 +4567,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B118" s="8">
         <v>8</v>
@@ -4351,7 +4575,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="44"/>
+      <c r="D118" s="46"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4359,7 +4583,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>29</v>
@@ -4367,7 +4591,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="44"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4375,7 +4599,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>37</v>
@@ -4383,7 +4607,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="44"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4391,15 +4615,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D121" s="44"/>
+        <v>141</v>
+      </c>
+      <c r="D121" s="46"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4407,7 +4631,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>36</v>
@@ -4415,7 +4639,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="44"/>
+      <c r="D122" s="46"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4423,15 +4647,15 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="C123" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D123" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="D123" s="46"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4439,7 +4663,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>32</v>
@@ -4447,7 +4671,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="44"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4455,7 +4679,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B125" s="8">
         <v>5</v>
@@ -4463,7 +4687,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="44"/>
+      <c r="D125" s="46"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4471,7 +4695,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>34</v>
@@ -4479,7 +4703,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="44"/>
+      <c r="D126" s="46"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4487,7 +4711,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>35</v>
@@ -4495,7 +4719,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="44"/>
+      <c r="D127" s="46"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4503,7 +4727,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="37" t="s">
         <v>33</v>
@@ -4511,7 +4735,7 @@
       <c r="C128" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="45"/>
+      <c r="D128" s="47"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4519,7 +4743,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>28</v>
@@ -4527,8 +4751,8 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="50" t="s">
-        <v>304</v>
+      <c r="D129" s="52" t="s">
+        <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4537,7 +4761,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" s="8">
         <v>8</v>
@@ -4545,7 +4769,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="51"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4553,7 +4777,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>33</v>
@@ -4561,7 +4785,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="51"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4569,7 +4793,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>34</v>
@@ -4577,7 +4801,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="51"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4585,7 +4809,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="8">
         <v>8</v>
@@ -4593,7 +4817,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="51"/>
+      <c r="D133" s="53"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4601,7 +4825,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>33</v>
@@ -4609,7 +4833,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="51"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4617,7 +4841,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>32</v>
@@ -4625,7 +4849,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="51"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4633,7 +4857,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B136" s="8">
         <v>8</v>
@@ -4641,7 +4865,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="51"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4649,7 +4873,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" s="37" t="s">
         <v>33</v>
@@ -4657,7 +4881,7 @@
       <c r="C137" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="52"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4665,7 +4889,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>32</v>
@@ -4673,17 +4897,17 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="53" t="s">
-        <v>309</v>
+      <c r="D138" s="55" t="s">
+        <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
-        <f t="shared" ref="E138:E185" si="3">IF(AND(B138=C138,B138&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E138:E201" si="3">IF(AND(B138=C138,B138&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>28</v>
@@ -4691,7 +4915,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="54"/>
+      <c r="D139" s="56"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4699,7 +4923,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B140" s="9">
         <v>2</v>
@@ -4707,7 +4931,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="54"/>
+      <c r="D140" s="56"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4715,7 +4939,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>29</v>
@@ -4723,7 +4947,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="54"/>
+      <c r="D141" s="56"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4731,15 +4955,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D142" s="54"/>
+        <v>304</v>
+      </c>
+      <c r="D142" s="56"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4747,15 +4971,15 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D143" s="54"/>
+        <v>172</v>
+      </c>
+      <c r="D143" s="56"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4763,7 +4987,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>36</v>
@@ -4771,7 +4995,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="54"/>
+      <c r="D144" s="56"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4779,15 +5003,15 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="C145" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D145" s="54"/>
+        <v>158</v>
+      </c>
+      <c r="D145" s="56"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4795,7 +5019,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>28</v>
@@ -4803,7 +5027,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="54"/>
+      <c r="D146" s="56"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4811,7 +5035,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>28</v>
@@ -4819,7 +5043,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="54"/>
+      <c r="D147" s="56"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4827,7 +5051,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>34</v>
@@ -4835,7 +5059,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="54"/>
+      <c r="D148" s="56"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4843,7 +5067,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" s="9">
         <v>4</v>
@@ -4851,7 +5075,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="54"/>
+      <c r="D149" s="56"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4859,7 +5083,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>35</v>
@@ -4867,7 +5091,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="54"/>
+      <c r="D150" s="56"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4875,15 +5099,15 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D151" s="54"/>
+        <v>298</v>
+      </c>
+      <c r="D151" s="56"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4891,7 +5115,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>29</v>
@@ -4899,7 +5123,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="54"/>
+      <c r="D152" s="56"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4907,15 +5131,15 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D153" s="54"/>
+        <v>305</v>
+      </c>
+      <c r="D153" s="56"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4923,15 +5147,15 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D154" s="54"/>
+        <v>172</v>
+      </c>
+      <c r="D154" s="56"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4939,7 +5163,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>36</v>
@@ -4947,7 +5171,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="54"/>
+      <c r="D155" s="56"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4955,15 +5179,15 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="C156" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D156" s="54"/>
+        <v>169</v>
+      </c>
+      <c r="D156" s="56"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4971,7 +5195,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B157" s="9">
         <v>1</v>
@@ -4979,7 +5203,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="54"/>
+      <c r="D157" s="56"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4987,7 +5211,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>36</v>
@@ -4995,7 +5219,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="54"/>
+      <c r="D158" s="56"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5003,15 +5227,15 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D159" s="54"/>
+        <v>173</v>
+      </c>
+      <c r="D159" s="56"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5019,7 +5243,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B160" s="35">
         <v>0</v>
@@ -5027,7 +5251,7 @@
       <c r="C160" s="36">
         <v>0</v>
       </c>
-      <c r="D160" s="55"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5035,804 +5259,1474 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="38" t="s">
-        <v>312</v>
+        <v>173</v>
+      </c>
+      <c r="B161" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" s="86" t="s">
+        <v>323</v>
       </c>
       <c r="E161" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>28</v>
+        <v>174</v>
+      </c>
+      <c r="B162" s="9">
+        <v>1</v>
       </c>
       <c r="C162" s="7">
-        <v>2</v>
-      </c>
-      <c r="D162" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="D162" s="87"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B163" s="9">
-        <v>4</v>
-      </c>
-      <c r="C163" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="38"/>
+      <c r="C163" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="88"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C164" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="38"/>
+      <c r="C164" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="52" t="s">
+        <v>323</v>
+      </c>
       <c r="E164" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" s="38"/>
+        <v>177</v>
+      </c>
+      <c r="B165" s="9">
+        <v>15</v>
+      </c>
+      <c r="C165" s="7">
+        <v>15</v>
+      </c>
+      <c r="D165" s="53"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C166" s="7">
-        <v>2</v>
-      </c>
-      <c r="D166" s="38"/>
+        <v>178</v>
+      </c>
+      <c r="B166" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="54"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B167" s="9">
-        <v>1</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="38"/>
+        <v>179</v>
+      </c>
+      <c r="B167" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D167" s="86" t="s">
+        <v>322</v>
+      </c>
       <c r="E167" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D168" s="38"/>
+        <v>315</v>
+      </c>
+      <c r="D168" s="87"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" s="38"/>
+        <v>181</v>
+      </c>
+      <c r="B169" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="88"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B170" s="9">
-        <v>0</v>
-      </c>
-      <c r="C170" s="7">
-        <v>10</v>
-      </c>
-      <c r="D170" s="38"/>
+        <v>182</v>
+      </c>
+      <c r="B170" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D170" s="52" t="s">
+        <v>322</v>
+      </c>
       <c r="E170" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B171" s="9">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D171" s="38"/>
+        <v>316</v>
+      </c>
+      <c r="D171" s="53"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D172" s="38"/>
+        <v>184</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" s="54"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D173" s="38"/>
+        <v>185</v>
+      </c>
+      <c r="B173" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D173" s="86" t="s">
+        <v>322</v>
+      </c>
       <c r="E173" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D174" s="38"/>
+        <v>317</v>
+      </c>
+      <c r="D174" s="87"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D175" s="38"/>
+        <v>187</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D175" s="88"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D176" s="38"/>
+        <v>188</v>
+      </c>
+      <c r="B176" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D176" s="52" t="s">
+        <v>321</v>
+      </c>
       <c r="E176" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D177" s="38"/>
+        <v>318</v>
+      </c>
+      <c r="D177" s="53"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B178" s="9">
-        <v>4</v>
-      </c>
-      <c r="C178" s="7">
-        <v>163</v>
-      </c>
-      <c r="D178" s="38"/>
+        <v>190</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" s="54"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="38"/>
+        <v>191</v>
+      </c>
+      <c r="B179" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="C179" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D179" s="86" t="s">
+        <v>320</v>
+      </c>
       <c r="E179" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D180" s="38"/>
+        <v>192</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="D180" s="87"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D181" s="38"/>
+        <v>193</v>
+      </c>
+      <c r="B181" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="88"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D182" s="38"/>
+      <c r="A182" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" s="89" t="s">
+        <v>329</v>
+      </c>
       <c r="E182" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D183" s="38"/>
+      <c r="A183" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="9">
+        <v>2</v>
+      </c>
+      <c r="C183" s="7">
+        <v>2</v>
+      </c>
+      <c r="D183" s="90"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>197</v>
+      <c r="A184" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D184" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="90"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D185" s="38"/>
+        <v>304</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D185" s="90"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>199</v>
+        <v>215</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D186" s="90"/>
+      <c r="E186" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>199</v>
+        <v>36</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" s="90"/>
+      <c r="E187" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>201</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188" s="90"/>
+      <c r="E188" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" s="90"/>
+      <c r="E189" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" s="90"/>
+      <c r="E190" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" s="90"/>
+      <c r="E191" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="9">
+        <v>4</v>
+      </c>
+      <c r="C192" s="7">
+        <v>4</v>
+      </c>
+      <c r="D192" s="90"/>
+      <c r="E192" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="B193" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" s="90"/>
+      <c r="E193" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="B194" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D194" s="90"/>
+      <c r="E194" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="B195" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D195" s="90"/>
+      <c r="E195" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="B196" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D196" s="90"/>
+      <c r="E196" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="B197" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" s="90"/>
+      <c r="E197" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="B198" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" s="90"/>
+      <c r="E198" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="B199" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C199" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D199" s="90"/>
+      <c r="E199" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
+      </c>
+      <c r="C200" s="7">
+        <v>1</v>
+      </c>
+      <c r="D200" s="90"/>
+      <c r="E200" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="B201" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="90"/>
+      <c r="E201" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="B202" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202" s="90"/>
+      <c r="E202" s="6" t="str">
+        <f t="shared" ref="E202:E265" si="4">IF(AND(B202=C202,B202&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="B203" s="9">
+        <v>0</v>
+      </c>
+      <c r="C203" s="7">
+        <v>0</v>
+      </c>
+      <c r="D203" s="90"/>
+      <c r="E203" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="B204" s="9">
+        <v>1</v>
+      </c>
+      <c r="C204" s="7">
+        <v>1</v>
+      </c>
+      <c r="D204" s="90"/>
+      <c r="E204" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="B205" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="90"/>
+      <c r="E205" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="B206" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D206" s="90"/>
+      <c r="E206" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="B207" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D207" s="90"/>
+      <c r="E207" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+      <c r="B208" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208" s="90"/>
+      <c r="E208" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="B209" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C209" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D209" s="90"/>
+      <c r="E209" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" s="90"/>
+      <c r="E210" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="B211" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="90"/>
+      <c r="E211" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="B212" s="9">
+        <v>2</v>
+      </c>
+      <c r="C212" s="7">
+        <v>2</v>
+      </c>
+      <c r="D212" s="90"/>
+      <c r="E212" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="B213" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="90"/>
+      <c r="E213" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="B214" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="90"/>
+      <c r="E214" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="B215" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" s="90"/>
+      <c r="E215" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="B216" s="35" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C216" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D216" s="91"/>
+      <c r="E216" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="E217" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="B218" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="93"/>
+      <c r="E218" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="B219" s="9">
+        <v>2</v>
+      </c>
+      <c r="C219" s="7">
+        <v>2</v>
+      </c>
+      <c r="D219" s="93"/>
+      <c r="E219" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="B220" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220" s="93"/>
+      <c r="E220" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="B221" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" s="93"/>
+      <c r="E221" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="B222" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="93"/>
+      <c r="E222" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="B223" s="8">
+        <v>10</v>
+      </c>
+      <c r="C223" s="7">
+        <v>10</v>
+      </c>
+      <c r="D223" s="93"/>
+      <c r="E223" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="B224" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D224" s="93"/>
+      <c r="E224" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="B225" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D225" s="93"/>
+      <c r="E225" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="B226" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D226" s="93"/>
+      <c r="E226" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="B227" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" s="93"/>
+      <c r="E227" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="B228" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="95"/>
+      <c r="E228" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="94" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="D229" s="97"/>
+      <c r="E229" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="99" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+      <c r="D230" s="97"/>
+      <c r="E230" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="101" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="B231" s="100"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="97"/>
+      <c r="E231" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="94" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="D232" s="97"/>
+      <c r="E232" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="D233" s="97"/>
+      <c r="E233" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="B234" s="96"/>
+      <c r="D234" s="98"/>
+      <c r="E234" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="94" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="E235" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
+      <c r="E236" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="E237" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="E238" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="E239" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="E240" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="E241" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+      <c r="E242" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="E243" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="E244" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="E245" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="E246" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="E247" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="E248" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="E249" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="E250" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="E251" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="E252" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="E253" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="E254" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="E255" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="E256" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="E257" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="E258" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="E259" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+      <c r="E260" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="E261" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="E262" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+      <c r="E263" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="E264" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="E265" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="E266" s="6" t="str">
+        <f t="shared" ref="E266:E267" si="5">IF(AND(B266=C266,B266&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
-        <v>280</v>
+      <c r="E267" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D161:D185"/>
+  <mergeCells count="20">
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D182:D216"/>
+    <mergeCell ref="D217:D228"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D179:D181"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D79:D90"/>
@@ -5844,12 +6738,14 @@
     <mergeCell ref="D57:D78"/>
     <mergeCell ref="D129:D137"/>
     <mergeCell ref="D138:D160"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="D164:D166"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E185">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="E2:E267">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5860,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5886,26 +6782,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>284</v>
+      <c r="A2" s="61" t="s">
+        <v>283</v>
       </c>
       <c r="B2" s="16">
         <v>7</v>
@@ -6050,7 +6946,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6124,32 +7020,32 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O4" s="68"/>
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>287</v>
+      <c r="A5" s="61" t="s">
+        <v>286</v>
       </c>
       <c r="B5" s="16">
         <v>19</v>
@@ -6294,7 +7190,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -6374,33 +7270,33 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="60"/>
       <c r="U7" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V7" s="68"/>
       <c r="W7" s="68"/>
@@ -6408,8 +7304,8 @@
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>289</v>
+      <c r="A8" s="61" t="s">
+        <v>288</v>
       </c>
       <c r="B8" s="16">
         <v>34</v>
@@ -6554,7 +7450,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -6568,13 +7464,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>28</v>
@@ -6589,13 +7485,13 @@
         <v>48</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>32</v>
@@ -6610,7 +7506,7 @@
         <v>36</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="17" t="s">
         <v>32</v>
@@ -6648,33 +7544,33 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V10" s="68"/>
       <c r="W10" s="68"/>
@@ -6682,8 +7578,8 @@
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>290</v>
+      <c r="A11" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="B11" s="16">
         <v>56</v>
@@ -6828,7 +7724,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -6842,13 +7738,13 @@
         <v>48</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>28</v>
@@ -6863,13 +7759,13 @@
         <v>48</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>32</v>
@@ -6884,7 +7780,7 @@
         <v>36</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>32</v>
@@ -6923,41 +7819,41 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="60"/>
       <c r="X14" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>311</v>
+      <c r="A15" s="61" t="s">
+        <v>309</v>
       </c>
       <c r="B15" s="16">
         <v>137</v>
@@ -7033,7 +7929,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -7047,16 +7943,16 @@
         <v>29</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>28</v>
@@ -7074,22 +7970,22 @@
         <v>35</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U16" s="21">
         <v>1</v>
@@ -7098,13 +7994,18 @@
         <v>36</v>
       </c>
       <c r="W16" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X16" s="17">
         <v>0</v>
       </c>
       <c r="Y16" s="17" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -7139,50 +8040,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="4.7109375" style="14" customWidth="1"/>
+    <col min="2" max="4" width="4.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="4.7109375" style="14" customWidth="1"/>
     <col min="13" max="13" width="10" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10" style="14" customWidth="1"/>
-    <col min="16" max="19" width="4.7109375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.7109375" style="14" customWidth="1"/>
     <col min="20" max="20" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="3.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>293</v>
+      <c r="A2" s="61" t="s">
+        <v>292</v>
       </c>
       <c r="B2" s="16">
         <v>78</v>
@@ -7229,7 +8132,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -7243,13 +8146,13 @@
         <v>30</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>32</v>
@@ -7275,35 +8178,35 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="63" t="s">
+      <c r="B4" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="58"/>
+      <c r="P4" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>294</v>
+      <c r="A5" s="61" t="s">
+        <v>293</v>
       </c>
       <c r="B5" s="16">
         <v>90</v>
@@ -7364,7 +8267,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -7378,13 +8281,13 @@
         <v>30</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>34</v>
@@ -7399,13 +8302,13 @@
         <v>37</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>32</v>
@@ -7424,35 +8327,35 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="63" t="s">
+      <c r="B7" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="56" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
+      <c r="P7" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="60"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>295</v>
+      <c r="A8" s="61" t="s">
+        <v>294</v>
       </c>
       <c r="B8" s="16">
         <v>109</v>
@@ -7513,73 +8416,208 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="76">
         <v>7</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="76">
         <v>8</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="21" t="s">
+      <c r="O9" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="76">
         <v>5</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="76" t="s">
         <v>33</v>
       </c>
       <c r="U9" s="22"/>
     </row>
+    <row r="10" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="75"/>
+    </row>
+    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71">
+        <v>216</v>
+      </c>
+      <c r="F11" s="71">
+        <v>217</v>
+      </c>
+      <c r="G11" s="71">
+        <v>218</v>
+      </c>
+      <c r="H11" s="71">
+        <v>219</v>
+      </c>
+      <c r="I11" s="71">
+        <v>220</v>
+      </c>
+      <c r="J11" s="71">
+        <v>221</v>
+      </c>
+      <c r="K11" s="71">
+        <v>222</v>
+      </c>
+      <c r="L11" s="71">
+        <v>223</v>
+      </c>
+      <c r="M11" s="71">
+        <v>224</v>
+      </c>
+      <c r="N11" s="71">
+        <v>225</v>
+      </c>
+      <c r="O11" s="71">
+        <v>226</v>
+      </c>
+      <c r="P11" s="71">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>228</v>
+      </c>
+      <c r="R11" s="71">
+        <v>229</v>
+      </c>
+      <c r="S11" s="71">
+        <v>230</v>
+      </c>
+      <c r="T11" s="71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="24">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="21">
+        <v>10</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="21"/>
+    </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="14" t="s">
-        <v>299</v>
+      <c r="E13" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:P10"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
@@ -7593,6 +8631,7 @@
     <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7610,16 +8649,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>301</v>
+      <c r="A2" s="61" t="s">
+        <v>299</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -7648,7 +8687,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -7675,10 +8714,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7695,8 +8734,8 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>303</v>
+      <c r="A6" s="61" t="s">
+        <v>301</v>
       </c>
       <c r="B6" s="16">
         <v>128</v>
@@ -7733,7 +8772,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -7766,7 +8805,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7784,8 +8823,8 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>305</v>
+      <c r="A12" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="B12" s="16">
         <v>139</v>
@@ -7822,7 +8861,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -7830,10 +8869,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="21"/>
@@ -7864,4 +8903,3440 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H267"/>
+  <sheetViews>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="8"/>
+    <col min="3" max="3" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(AND(B2=C2,B2&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="4">
+        <f>COUNTIF(E:E,"ERROR")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7">
+        <v>16</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="8">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7">
+        <v>17</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7">
+        <v>15</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7">
+        <v>4</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="8">
+        <v>16</v>
+      </c>
+      <c r="C50" s="7">
+        <v>16</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="8">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7">
+        <v>17</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="8">
+        <v>15</v>
+      </c>
+      <c r="C58" s="7">
+        <v>15</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="8">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7">
+        <v>4</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="6" t="str">
+        <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="8">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>16</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="51"/>
+      <c r="E75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="8">
+        <v>17</v>
+      </c>
+      <c r="C77" s="7">
+        <v>17</v>
+      </c>
+      <c r="D77" s="51"/>
+      <c r="E77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="8">
+        <v>7</v>
+      </c>
+      <c r="C80" s="7">
+        <v>7</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="42"/>
+      <c r="E82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="8">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7">
+        <v>5</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="8">
+        <v>7</v>
+      </c>
+      <c r="C92" s="7">
+        <v>7</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="44"/>
+      <c r="E93" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="44"/>
+      <c r="E94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="44"/>
+      <c r="E95" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="44"/>
+      <c r="E96" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="44"/>
+      <c r="E97" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="44"/>
+      <c r="E98" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="8">
+        <v>8</v>
+      </c>
+      <c r="C99" s="7">
+        <v>8</v>
+      </c>
+      <c r="D99" s="44"/>
+      <c r="E99" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="44"/>
+      <c r="E101" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="44"/>
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="44"/>
+      <c r="E103" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="44"/>
+      <c r="E104" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="44"/>
+      <c r="E105" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="8">
+        <v>5</v>
+      </c>
+      <c r="C106" s="7">
+        <v>5</v>
+      </c>
+      <c r="D106" s="44"/>
+      <c r="E106" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="44"/>
+      <c r="E107" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="44"/>
+      <c r="E108" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="45"/>
+      <c r="E109" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="8">
+        <v>7</v>
+      </c>
+      <c r="C111" s="7">
+        <v>7</v>
+      </c>
+      <c r="D111" s="46"/>
+      <c r="E111" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="46"/>
+      <c r="E112" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="46"/>
+      <c r="E113" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="46"/>
+      <c r="E114" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="46"/>
+      <c r="E115" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="46"/>
+      <c r="E116" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="46"/>
+      <c r="E117" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="8">
+        <v>8</v>
+      </c>
+      <c r="C118" s="7">
+        <v>8</v>
+      </c>
+      <c r="D118" s="46"/>
+      <c r="E118" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="46"/>
+      <c r="E119" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="46"/>
+      <c r="E120" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" s="46"/>
+      <c r="E121" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="46"/>
+      <c r="E122" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" s="46"/>
+      <c r="E123" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="46"/>
+      <c r="E124" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="8">
+        <v>5</v>
+      </c>
+      <c r="C125" s="7">
+        <v>5</v>
+      </c>
+      <c r="D125" s="46"/>
+      <c r="E125" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="46"/>
+      <c r="E127" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="E128" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="8">
+        <v>8</v>
+      </c>
+      <c r="C130" s="7">
+        <v>8</v>
+      </c>
+      <c r="D130" s="53"/>
+      <c r="E130" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="53"/>
+      <c r="E131" s="6" t="str">
+        <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="53"/>
+      <c r="E132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="8">
+        <v>8</v>
+      </c>
+      <c r="C133" s="7">
+        <v>8</v>
+      </c>
+      <c r="D133" s="53"/>
+      <c r="E133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="53"/>
+      <c r="E134" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="53"/>
+      <c r="E135" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="8">
+        <v>8</v>
+      </c>
+      <c r="C136" s="7">
+        <v>8</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="54"/>
+      <c r="E137" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="E138" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="56"/>
+      <c r="E139" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="9">
+        <v>2</v>
+      </c>
+      <c r="C140" s="7">
+        <v>2</v>
+      </c>
+      <c r="D140" s="56"/>
+      <c r="E140" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="56"/>
+      <c r="E141" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="56"/>
+      <c r="E142" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" s="56"/>
+      <c r="E143" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="56"/>
+      <c r="E144" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145" s="56"/>
+      <c r="E145" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="56"/>
+      <c r="E146" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="56"/>
+      <c r="E147" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="56"/>
+      <c r="E148" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="9">
+        <v>4</v>
+      </c>
+      <c r="C149" s="7">
+        <v>4</v>
+      </c>
+      <c r="D149" s="56"/>
+      <c r="E149" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="56"/>
+      <c r="E150" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="56"/>
+      <c r="E151" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="56"/>
+      <c r="E152" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D153" s="56"/>
+      <c r="E153" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" s="56"/>
+      <c r="E154" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="56"/>
+      <c r="E155" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="56"/>
+      <c r="E156" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="9">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="56"/>
+      <c r="E157" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="56"/>
+      <c r="E158" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="56"/>
+      <c r="E159" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="35">
+        <v>0</v>
+      </c>
+      <c r="C160" s="36">
+        <v>0</v>
+      </c>
+      <c r="D160" s="57"/>
+      <c r="E160" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E161" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="7">
+        <v>2</v>
+      </c>
+      <c r="D162" s="40"/>
+      <c r="E162" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="9">
+        <v>4</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="40"/>
+      <c r="E163" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="40"/>
+      <c r="E164" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="40"/>
+      <c r="E165" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="7">
+        <v>2</v>
+      </c>
+      <c r="D166" s="40"/>
+      <c r="E166" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="9">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" s="40"/>
+      <c r="E167" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="40"/>
+      <c r="E168" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="40"/>
+      <c r="E169" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="9">
+        <v>0</v>
+      </c>
+      <c r="C170" s="7">
+        <v>10</v>
+      </c>
+      <c r="D170" s="40"/>
+      <c r="E170" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="9">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="40"/>
+      <c r="E171" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D172" s="40"/>
+      <c r="E172" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" s="40"/>
+      <c r="E173" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="40"/>
+      <c r="E174" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D175" s="40"/>
+      <c r="E175" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D176" s="40"/>
+      <c r="E176" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" s="40"/>
+      <c r="E177" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="9">
+        <v>4</v>
+      </c>
+      <c r="C178" s="7">
+        <v>163</v>
+      </c>
+      <c r="D178" s="40"/>
+      <c r="E178" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="40"/>
+      <c r="E179" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" s="40"/>
+      <c r="E180" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D184" s="40"/>
+      <c r="E184" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" s="40"/>
+      <c r="E185" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D161:D185"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="D35:D56"/>
+    <mergeCell ref="D57:D78"/>
+    <mergeCell ref="D79:D90"/>
+    <mergeCell ref="D91:D109"/>
+    <mergeCell ref="D110:D128"/>
+    <mergeCell ref="D129:D137"/>
+    <mergeCell ref="D138:D160"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E185">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$E2="ERROR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$E2="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>